--- a/Results/Aspect Terms Extraction/lda.xlsx
+++ b/Results/Aspect Terms Extraction/lda.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2689" uniqueCount="1523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2742" uniqueCount="1673">
   <si>
     <t>id</t>
   </si>
@@ -4021,460 +4021,910 @@
     <t>FOOD,PRICES,FOOD</t>
   </si>
   <si>
-    <t>place|like|staff|rude</t>
-  </si>
-  <si>
-    <t>food|good|always|time</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>good|wine</t>
-  </si>
-  <si>
-    <t>great|food</t>
-  </si>
-  <si>
-    <t>rude</t>
-  </si>
-  <si>
-    <t>service|price</t>
-  </si>
-  <si>
-    <t>service|always</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>great|tuna|good</t>
-  </si>
-  <si>
-    <t>great|service</t>
+    <t>place|like</t>
+  </si>
+  <si>
+    <t>food|salty</t>
+  </si>
+  <si>
+    <t>good|food|outrageously|many</t>
+  </si>
+  <si>
+    <t>wine|good|list|value|many|interesting</t>
+  </si>
+  <si>
+    <t>rice|rice|replied|walked|away|lotus|wrapped|back|attendant|asked|leaf|tend</t>
+  </si>
+  <si>
+    <t>food|great|thing</t>
+  </si>
+  <si>
+    <t>table|share</t>
+  </si>
+  <si>
+    <t>service|rice|price</t>
+  </si>
+  <si>
+    <t>service|cool|everything|excellent|cooked|perfection|thing</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>food|thing</t>
+  </si>
+  <si>
+    <t>special|thing</t>
+  </si>
+  <si>
+    <t>made|list|list</t>
+  </si>
+  <si>
+    <t>good|great|spicy|rock|unusually|tuna|awesome|roll|shrimp|tempura|share</t>
+  </si>
+  <si>
+    <t>service|great</t>
+  </si>
+  <si>
+    <t>food|awesome</t>
   </si>
   <si>
     <t>service|friendly</t>
   </si>
   <si>
+    <t>long|like</t>
+  </si>
+  <si>
+    <t>food|great</t>
+  </si>
+  <si>
+    <t>restaurant|sushi|sushi|urchin|judge|heavenly|tend|rose</t>
+  </si>
+  <si>
+    <t>fresh|sushi</t>
+  </si>
+  <si>
+    <t>good|rice|rice|also</t>
+  </si>
+  <si>
+    <t>saturday|rice|sushi|took|price|deal</t>
+  </si>
+  <si>
+    <t>service|food</t>
+  </si>
+  <si>
+    <t>menu|enough</t>
+  </si>
+  <si>
+    <t>food|fresh</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>good|food|like|rather</t>
+  </si>
+  <si>
+    <t>like|somosas|chai|dissapointing|dhosas</t>
+  </si>
+  <si>
+    <t>food|like|specify|bland|spicy|also|rather</t>
+  </si>
+  <si>
+    <t>probably|would</t>
+  </si>
+  <si>
+    <t>long|river</t>
+  </si>
+  <si>
+    <t>service|even|food|great|great|great|rice|evening|price|reasonable</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>restaurant|certain</t>
+  </si>
+  <si>
+    <t>even|live</t>
+  </si>
+  <si>
+    <t>rice|overpriced|price</t>
+  </si>
+  <si>
+    <t>good|even</t>
+  </si>
+  <si>
+    <t>wine|good|food|menu|great|list</t>
+  </si>
+  <si>
+    <t>fresh|delicious</t>
+  </si>
+  <si>
+    <t>shrimp</t>
+  </si>
+  <si>
+    <t>sign|even|food|special|menu|waitstaff</t>
+  </si>
+  <si>
+    <t>good|special|live|atmosphere</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>wine|rice|price|reasonable</t>
+  </si>
+  <si>
+    <t>service|food|great|delicious|excellent</t>
+  </si>
+  <si>
+    <t>food|bland</t>
+  </si>
+  <si>
+    <t>wine|service|place|food|great|many</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>wine|great</t>
+  </si>
+  <si>
+    <t>people|friendly</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
+    <t>good|review</t>
+  </si>
+  <si>
+    <t>food|sauce</t>
+  </si>
+  <si>
+    <t>food|waitress</t>
+  </si>
+  <si>
+    <t>service|great|friendly</t>
+  </si>
+  <si>
+    <t>place|food</t>
+  </si>
+  <si>
+    <t>tuna</t>
+  </si>
+  <si>
+    <t>food|great|sushi|excellent</t>
+  </si>
+  <si>
+    <t>menu|great</t>
+  </si>
+  <si>
+    <t>great|rice|atmosphere|price</t>
+  </si>
+  <si>
+    <t>good|fresh|roll</t>
+  </si>
+  <si>
+    <t>great|table</t>
+  </si>
+  <si>
+    <t>restaurant|charm|rather|open</t>
+  </si>
+  <si>
+    <t>wine|great|great|rice|price|value</t>
+  </si>
+  <si>
+    <t>good|food</t>
+  </si>
+  <si>
+    <t>like|fresh</t>
+  </si>
+  <si>
+    <t>food|great|great|review</t>
+  </si>
+  <si>
+    <t>service|special|recommend</t>
+  </si>
+  <si>
+    <t>spicy|roll</t>
+  </si>
+  <si>
+    <t>excellent|salty</t>
+  </si>
+  <si>
+    <t>took</t>
+  </si>
+  <si>
+    <t>made|wine|rice|fairly|price|drink</t>
+  </si>
+  <si>
+    <t>service|deal</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>food|service</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>food|like|good</t>
-  </si>
-  <si>
-    <t>nice|service|time|time</t>
-  </si>
-  <si>
-    <t>food|like</t>
-  </si>
-  <si>
-    <t>would|nice</t>
-  </si>
-  <si>
-    <t>great|great|great|food|service|price</t>
-  </si>
-  <si>
-    <t>pizza|price</t>
-  </si>
-  <si>
-    <t>good|pizza</t>
-  </si>
-  <si>
-    <t>great|food|good|always|wine</t>
-  </si>
-  <si>
-    <t>food|staff</t>
-  </si>
-  <si>
-    <t>atmosphere|good</t>
-  </si>
-  <si>
-    <t>friendly|always|always|staff|never</t>
-  </si>
-  <si>
-    <t>price|wine</t>
-  </si>
-  <si>
-    <t>great|food|service</t>
-  </si>
-  <si>
-    <t>great|food|place|service|always|wine|time</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>great|always|wine</t>
-  </si>
-  <si>
-    <t>friendly|always|time</t>
-  </si>
-  <si>
-    <t>like|pizza</t>
-  </si>
-  <si>
-    <t>great|service|friendly</t>
-  </si>
-  <si>
-    <t>great|service|pizza</t>
-  </si>
-  <si>
-    <t>food|place</t>
-  </si>
-  <si>
-    <t>tuna</t>
-  </si>
-  <si>
-    <t>great|food|always</t>
-  </si>
-  <si>
-    <t>great|never</t>
-  </si>
-  <si>
-    <t>great|atmosphere|price</t>
-  </si>
-  <si>
-    <t>great|great|price|wine</t>
-  </si>
-  <si>
-    <t>food|good</t>
-  </si>
-  <si>
-    <t>like|pizza|pizza</t>
-  </si>
-  <si>
-    <t>great|great|food</t>
-  </si>
-  <si>
-    <t>nice|service</t>
-  </si>
-  <si>
-    <t>always|price|wine</t>
-  </si>
-  <si>
-    <t>good|always</t>
-  </si>
-  <si>
-    <t>restaurant|food|service|rude</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>great|great|food|service</t>
-  </si>
-  <si>
-    <t>pizza|pizza|cheap</t>
+    <t>restaurant|romantic</t>
+  </si>
+  <si>
+    <t>food|beautiful|beautifully|presented|delicious</t>
+  </si>
+  <si>
+    <t>wine|rice|price|interesting</t>
+  </si>
+  <si>
+    <t>dinner|table|waitress|want|practically|told|asked|sitting|order</t>
+  </si>
+  <si>
+    <t>service|restaurant|food|away</t>
+  </si>
+  <si>
+    <t>special|especially</t>
+  </si>
+  <si>
+    <t>tuna|excellent</t>
+  </si>
+  <si>
+    <t>even|away|wonderful|atmosphere|evening|outdoor|sidewalk|watching|sitting|cool|avenue</t>
+  </si>
+  <si>
+    <t>service|food|great|great</t>
+  </si>
+  <si>
+    <t>menu|would</t>
+  </si>
+  <si>
+    <t>business</t>
   </si>
   <si>
     <t>restaurant|food</t>
   </si>
   <si>
-    <t>would|would</t>
+    <t>dining|restaurant</t>
+  </si>
+  <si>
+    <t>service|table</t>
+  </si>
+  <si>
+    <t>live|free|would|would</t>
+  </si>
+  <si>
+    <t>roll</t>
+  </si>
+  <si>
+    <t>special|roll|rose</t>
   </si>
   <si>
     <t>service|good</t>
   </si>
   <si>
-    <t>good|wine|wine</t>
-  </si>
-  <si>
-    <t>restaurant|always</t>
-  </si>
-  <si>
-    <t>atmosphere|time</t>
-  </si>
-  <si>
-    <t>food|food</t>
+    <t>good|food|long|wish|order</t>
+  </si>
+  <si>
+    <t>wine|wine|good|list</t>
+  </si>
+  <si>
+    <t>restaurant|rather</t>
+  </si>
+  <si>
+    <t>restaurant|even|evening</t>
+  </si>
+  <si>
+    <t>good|food|table|fresh|order</t>
+  </si>
+  <si>
+    <t>dining|great</t>
+  </si>
+  <si>
+    <t>live|atmosphere|order|completely</t>
+  </si>
+  <si>
+    <t>simply</t>
+  </si>
+  <si>
+    <t>upscale|restaurant</t>
+  </si>
+  <si>
+    <t>made|food|food|delicious</t>
+  </si>
+  <si>
+    <t>food|cool|drink</t>
+  </si>
+  <si>
+    <t>made|place|good</t>
+  </si>
+  <si>
+    <t>made|food|delicious|recommend</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>fresh|roll|recommend</t>
+  </si>
+  <si>
+    <t>service|food|wonderful|recommend</t>
+  </si>
+  <si>
+    <t>bland</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>service|restaurant|good|thing</t>
+  </si>
+  <si>
+    <t>tuna|roll|sushi</t>
+  </si>
+  <si>
+    <t>delicious|everything|thing</t>
+  </si>
+  <si>
+    <t>service|rice|price|although|reasonable</t>
+  </si>
+  <si>
+    <t>restaurant|food|fresh|fresh|delicious</t>
+  </si>
+  <si>
+    <t>fresh|delicious|spicy</t>
+  </si>
+  <si>
+    <t>great|people</t>
+  </si>
+  <si>
+    <t>like|atmosphere</t>
+  </si>
+  <si>
+    <t>good|vacation|although|business</t>
+  </si>
+  <si>
+    <t>great|although</t>
+  </si>
+  <si>
+    <t>good|sushi</t>
+  </si>
+  <si>
+    <t>rice|spicy|tuna|roll|price|probably</t>
+  </si>
+  <si>
+    <t>food|menu|reservation|fairly|deal|probably|order</t>
+  </si>
+  <si>
+    <t>service|food|great|rice|price</t>
+  </si>
+  <si>
+    <t>atmosphere|thing</t>
+  </si>
+  <si>
+    <t>rice|rice|price|reasonable</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>delicious</t>
+  </si>
+  <si>
+    <t>place|food|delicious</t>
+  </si>
+  <si>
+    <t>even|want|manager</t>
+  </si>
+  <si>
+    <t>service|good|food</t>
+  </si>
+  <si>
+    <t>service|service|good|good|food</t>
+  </si>
+  <si>
+    <t>wine|place|atmosphere</t>
   </si>
   <si>
     <t>place|good</t>
   </si>
   <si>
-    <t>food|service|time</t>
-  </si>
-  <si>
-    <t>restaurant|service|good</t>
-  </si>
-  <si>
-    <t>atmosphere|like</t>
-  </si>
-  <si>
-    <t>tuna|price</t>
-  </si>
-  <si>
-    <t>great|food|service|price</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>food|place|staff</t>
-  </si>
-  <si>
-    <t>food|service|good|time</t>
-  </si>
-  <si>
-    <t>food|service|service|good|good|time|time</t>
-  </si>
-  <si>
-    <t>place|atmosphere|wine</t>
-  </si>
-  <si>
-    <t>place|nice|good|pizza</t>
-  </si>
-  <si>
-    <t>place|nice</t>
-  </si>
-  <si>
-    <t>tuna|like|like</t>
-  </si>
-  <si>
-    <t>restaurant|food|service|time</t>
-  </si>
-  <si>
-    <t>place|service|pizza|wine</t>
-  </si>
-  <si>
-    <t>restaurant|price|wine</t>
-  </si>
-  <si>
-    <t>wine</t>
-  </si>
-  <si>
-    <t>would|service|price</t>
-  </si>
-  <si>
-    <t>would|place|nice|staff|never</t>
-  </si>
-  <si>
-    <t>service|never</t>
-  </si>
-  <si>
-    <t>place|service</t>
-  </si>
-  <si>
-    <t>service|staff</t>
-  </si>
-  <si>
-    <t>great|place|service</t>
-  </si>
-  <si>
-    <t>great|food|food|food|food|food|like|good|price|price</t>
-  </si>
-  <si>
-    <t>place|place</t>
-  </si>
-  <si>
-    <t>great|nice|service</t>
-  </si>
-  <si>
-    <t>food|service|price|cheap</t>
-  </si>
-  <si>
-    <t>food|price|wine</t>
-  </si>
-  <si>
-    <t>great|staff</t>
-  </si>
-  <si>
-    <t>great|service|always</t>
-  </si>
-  <si>
-    <t>food|place|service|like|price|price</t>
-  </si>
-  <si>
-    <t>nice|staff</t>
-  </si>
-  <si>
-    <t>service|time|rude</t>
-  </si>
-  <si>
-    <t>restaurant|time|rude</t>
-  </si>
-  <si>
-    <t>price|cheap</t>
-  </si>
-  <si>
-    <t>great|food|cheap</t>
-  </si>
-  <si>
-    <t>great|nice|staff</t>
-  </si>
-  <si>
-    <t>friendly|staff</t>
-  </si>
-  <si>
-    <t>service|good|good</t>
-  </si>
-  <si>
-    <t>restaurant|price</t>
-  </si>
-  <si>
-    <t>food|good|price</t>
-  </si>
-  <si>
-    <t>good|price</t>
-  </si>
-  <si>
-    <t>food|nice|cheap</t>
-  </si>
-  <si>
-    <t>great|would|atmosphere</t>
-  </si>
-  <si>
-    <t>great|great|food|place|good</t>
-  </si>
-  <si>
-    <t>like|staff</t>
-  </si>
-  <si>
-    <t>great|would|place|good|staff</t>
-  </si>
-  <si>
-    <t>great|food|price</t>
-  </si>
-  <si>
-    <t>restaurant|service</t>
-  </si>
-  <si>
-    <t>staff|time</t>
-  </si>
-  <si>
-    <t>nice|always|never</t>
-  </si>
-  <si>
-    <t>food|cheap</t>
-  </si>
-  <si>
-    <t>great|place</t>
-  </si>
-  <si>
-    <t>place|price</t>
-  </si>
-  <si>
-    <t>great|like</t>
-  </si>
-  <si>
-    <t>food|price</t>
-  </si>
-  <si>
-    <t>great|great</t>
-  </si>
-  <si>
-    <t>restaurant|staff</t>
-  </si>
-  <si>
-    <t>service|atmosphere|friendly</t>
-  </si>
-  <si>
-    <t>would|place|service</t>
-  </si>
-  <si>
-    <t>great|price</t>
-  </si>
-  <si>
-    <t>place|like|staff|time</t>
-  </si>
-  <si>
-    <t>place|good|cheap</t>
-  </si>
-  <si>
-    <t>great|place|place|service|never</t>
-  </si>
-  <si>
-    <t>great|great|food|place|price</t>
-  </si>
-  <si>
-    <t>great|food|good|price|wine</t>
-  </si>
-  <si>
-    <t>food|would|price</t>
-  </si>
-  <si>
-    <t>food|good|cheap</t>
-  </si>
-  <si>
-    <t>good|wine|cheap</t>
-  </si>
-  <si>
-    <t>great|food|service|good|price</t>
-  </si>
-  <si>
-    <t>nice|atmosphere</t>
-  </si>
-  <si>
-    <t>restaurant|food|friendly|like|good|price|price|staff|time|cheap</t>
-  </si>
-  <si>
-    <t>restaurant|food|service|good|price|staff</t>
-  </si>
-  <si>
-    <t>food|service|price</t>
-  </si>
-  <si>
-    <t>food|nice|price</t>
-  </si>
-  <si>
-    <t>place|nice|tuna</t>
-  </si>
-  <si>
-    <t>place|time</t>
-  </si>
-  <si>
-    <t>restaurant|nice</t>
-  </si>
-  <si>
-    <t>food|place|good</t>
-  </si>
-  <si>
-    <t>food|friendly|good|price</t>
-  </si>
-  <si>
-    <t>would|price</t>
-  </si>
-  <si>
-    <t>great|great|place</t>
+    <t>enough</t>
+  </si>
+  <si>
+    <t>service|people|friendly</t>
+  </si>
+  <si>
+    <t>food|delicious|italian</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>like|like|tuna</t>
+  </si>
+  <si>
+    <t>service|great|also</t>
+  </si>
+  <si>
+    <t>service|restaurant|food|excellent|review</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>menu|order|thing</t>
+  </si>
+  <si>
+    <t>dining|made|wine|service|place|back|excellent</t>
+  </si>
+  <si>
+    <t>place|romantic|review</t>
+  </si>
+  <si>
+    <t>wine|restaurant|menu|typical|table|rice|overpriced|simply|list|italian|close|crammed|price</t>
+  </si>
+  <si>
+    <t>wine|list</t>
+  </si>
+  <si>
+    <t>service|rice|price|would</t>
+  </si>
+  <si>
+    <t>service|charm|italian</t>
+  </si>
+  <si>
+    <t>food|completely</t>
+  </si>
+  <si>
+    <t>made|bland|rose</t>
+  </si>
+  <si>
+    <t>place|would</t>
+  </si>
+  <si>
+    <t>also|recommend</t>
+  </si>
+  <si>
+    <t>service|fresh|delicious</t>
+  </si>
+  <si>
+    <t>service|place|cool</t>
+  </si>
+  <si>
+    <t>dining|fresh|music</t>
+  </si>
+  <si>
+    <t>service|menu|tend</t>
+  </si>
+  <si>
+    <t>service|wonderful</t>
+  </si>
+  <si>
+    <t>service|place|special|great|romantic|excellent</t>
+  </si>
+  <si>
+    <t>good|food|food|food|food|food|menu|great|like|rice|rice|price|price</t>
+  </si>
+  <si>
+    <t>place|place|romantic</t>
+  </si>
+  <si>
+    <t>service|food|although|order</t>
+  </si>
+  <si>
+    <t>rice|price|drink</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>rice|price</t>
+  </si>
+  <si>
+    <t>special|like|atmosphere|sushi|thing</t>
+  </si>
+  <si>
+    <t>service|food|rice|price</t>
+  </si>
+  <si>
+    <t>service|asked|people</t>
+  </si>
+  <si>
+    <t>restaurant|romantic|list</t>
+  </si>
+  <si>
+    <t>wine|food|rice|price</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>service|food|value</t>
+  </si>
+  <si>
+    <t>service|friendly|excellent</t>
+  </si>
+  <si>
+    <t>waitress|everything|thing</t>
+  </si>
+  <si>
+    <t>waitress|order</t>
+  </si>
+  <si>
+    <t>service|place|food|like|rice|rice|price|price</t>
+  </si>
+  <si>
+    <t>like|also|thing</t>
+  </si>
+  <si>
+    <t>table|wooden|sitting</t>
+  </si>
+  <si>
+    <t>restaurant|close|rather|busy</t>
+  </si>
+  <si>
+    <t>great|feature|cigar|patroon</t>
+  </si>
+  <si>
+    <t>waitstaff|friendly</t>
+  </si>
+  <si>
+    <t>service|good|good|outing</t>
+  </si>
+  <si>
+    <t>restaurant|fallback|rice|back|price</t>
+  </si>
+  <si>
+    <t>good|even|food|rice|price</t>
+  </si>
+  <si>
+    <t>good|warrant|nearly|rice|price|although|enough</t>
+  </si>
+  <si>
+    <t>special|anyone|came|asked|birthday|said|open</t>
+  </si>
+  <si>
+    <t>wine|rice|list|price</t>
+  </si>
+  <si>
+    <t>great|atmosphere|write|review|would</t>
+  </si>
+  <si>
+    <t>place|good|food|great|great|deal</t>
+  </si>
+  <si>
+    <t>like|people</t>
+  </si>
+  <si>
+    <t>service|people|everything|thing|thing</t>
+  </si>
+  <si>
+    <t>good|waitress|waitress</t>
+  </si>
+  <si>
+    <t>dinner|away|asked|manager|survive|thing|thing</t>
+  </si>
+  <si>
+    <t>waitress|want|manager</t>
+  </si>
+  <si>
+    <t>place|good|great|wish|unprofessional|would</t>
+  </si>
+  <si>
+    <t>charm</t>
+  </si>
+  <si>
+    <t>food|great|rice|price</t>
+  </si>
+  <si>
+    <t>service|restaurant|back</t>
+  </si>
+  <si>
+    <t>table|came|asked|order|manager</t>
+  </si>
+  <si>
+    <t>reservation</t>
+  </si>
+  <si>
+    <t>table|outside</t>
+  </si>
+  <si>
+    <t>made|waitstaff|table</t>
+  </si>
+  <si>
+    <t>back|cool|music</t>
+  </si>
+  <si>
+    <t>service|good|also</t>
+  </si>
+  <si>
+    <t>back|sitting</t>
+  </si>
+  <si>
+    <t>place|special|especially|money|stand|wonderful|value</t>
+  </si>
+  <si>
+    <t>service|excellent</t>
+  </si>
+  <si>
+    <t>even|rice|price</t>
+  </si>
+  <si>
+    <t>paid|money|said|immediately|outta|took</t>
+  </si>
+  <si>
+    <t>place|outside</t>
+  </si>
+  <si>
+    <t>restaurant|river|beautiful</t>
+  </si>
+  <si>
+    <t>place|great|watching</t>
+  </si>
+  <si>
+    <t>service|thing</t>
+  </si>
+  <si>
+    <t>place|rice|price</t>
+  </si>
+  <si>
+    <t>told|asked|business|open|manager</t>
+  </si>
+  <si>
+    <t>place|even</t>
+  </si>
+  <si>
+    <t>great|like|want|music|minimun|dollar|system</t>
+  </si>
+  <si>
+    <t>food|rice|price</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>atmosphere|free</t>
+  </si>
+  <si>
+    <t>great|great|music|completely|shanty|recommend|drink|delish</t>
+  </si>
+  <si>
+    <t>good|outrageously|saturday|music</t>
+  </si>
+  <si>
+    <t>good|rice|back|price|reasonable</t>
+  </si>
+  <si>
+    <t>great|feature|outside</t>
+  </si>
+  <si>
+    <t>romantic</t>
+  </si>
+  <si>
+    <t>rice|stand|price</t>
+  </si>
+  <si>
+    <t>typical|long|like|table|atmosphere</t>
+  </si>
+  <si>
+    <t>service|friendly|atmosphere</t>
+  </si>
+  <si>
+    <t>service|place|stand|would</t>
+  </si>
+  <si>
+    <t>great|rice|price</t>
+  </si>
+  <si>
+    <t>place|like|excellent</t>
+  </si>
+  <si>
+    <t>service|food|great|great|great|rice|price</t>
+  </si>
+  <si>
+    <t>service|place|place|dinner|great|live|romantic|table|want|also</t>
+  </si>
+  <si>
+    <t>service|back</t>
+  </si>
+  <si>
+    <t>place|beautiful</t>
+  </si>
+  <si>
+    <t>restaurant|typical</t>
+  </si>
+  <si>
+    <t>romantic|table</t>
+  </si>
+  <si>
+    <t>place|food|great|great|want|rice|price</t>
+  </si>
+  <si>
+    <t>dining|outside|sitting</t>
+  </si>
+  <si>
+    <t>outside</t>
+  </si>
+  <si>
+    <t>place|food|money</t>
+  </si>
+  <si>
+    <t>friendly|outdoor</t>
+  </si>
+  <si>
+    <t>wine|good|food|great|rice|price|selecion|reasonable</t>
+  </si>
+  <si>
+    <t>good|rice|overpriced|price|everything|thing</t>
+  </si>
+  <si>
+    <t>food|rice|price|would</t>
+  </si>
+  <si>
+    <t>place|great</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>sign|good|atmosphere</t>
+  </si>
+  <si>
+    <t>wine|good</t>
+  </si>
+  <si>
+    <t>italian|everything|thing</t>
+  </si>
+  <si>
+    <t>drink</t>
+  </si>
+  <si>
+    <t>outdoor</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>food|great|rice|price|reasonable</t>
+  </si>
+  <si>
+    <t>good|food|rice|simply|price</t>
+  </si>
+  <si>
+    <t>service|good|food|great|rice|price|music</t>
+  </si>
+  <si>
+    <t>restaurant|good|food|like|rice|rice|rice|friendly|avenue|avenue|price|price</t>
+  </si>
+  <si>
+    <t>service|restaurant|good|food|rice|overpriced|price|many</t>
+  </si>
+  <si>
+    <t>food|rice|price|reasonable</t>
+  </si>
+  <si>
+    <t>place|tuna</t>
+  </si>
+  <si>
+    <t>paid|good</t>
+  </si>
+  <si>
+    <t>place|away</t>
+  </si>
+  <si>
+    <t>place|dinner|great</t>
+  </si>
+  <si>
+    <t>nearly|back|atmosphere|thing</t>
+  </si>
+  <si>
+    <t>food|great|rice|price|excellent</t>
+  </si>
+  <si>
+    <t>service|food|rice|overpriced|price</t>
+  </si>
+  <si>
+    <t>dinner|romatic</t>
+  </si>
+  <si>
+    <t>place|good|food</t>
+  </si>
+  <si>
+    <t>place|beautiful|recommend</t>
+  </si>
+  <si>
+    <t>table|told</t>
+  </si>
+  <si>
+    <t>river</t>
+  </si>
+  <si>
+    <t>sign|restaurant|beautiful|beautifully</t>
+  </si>
+  <si>
+    <t>good|food|rice|people|friendly|price</t>
+  </si>
+  <si>
+    <t>rice|price|would</t>
+  </si>
+  <si>
+    <t>great|romantic</t>
+  </si>
+  <si>
+    <t>people|review</t>
+  </si>
+  <si>
+    <t>place|great|great|value</t>
+  </si>
+  <si>
+    <t>rice|fairly|price</t>
+  </si>
+  <si>
+    <t>back|awesome|birthday</t>
+  </si>
+  <si>
+    <t>wine|dinner</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>place|certain|want|beautiful</t>
+  </si>
+  <si>
+    <t>restaurant|review</t>
   </si>
   <si>
     <t>restaurant|restaurant</t>
   </si>
   <si>
-    <t>food|would|good|time</t>
-  </si>
-  <si>
-    <t>restaurant|never</t>
-  </si>
-  <si>
-    <t>restaurant|would|place|price</t>
-  </si>
-  <si>
-    <t>great|good|price|time</t>
-  </si>
-  <si>
-    <t>service|rude</t>
-  </si>
-  <si>
-    <t>great|service|good</t>
-  </si>
-  <si>
-    <t>food|would|good|price</t>
+    <t>environment|trophy|upscale|paid</t>
+  </si>
+  <si>
+    <t>back|money|value</t>
+  </si>
+  <si>
+    <t>dinner|would</t>
+  </si>
+  <si>
+    <t>good|food|dinner|table|would</t>
+  </si>
+  <si>
+    <t>restaurant|money</t>
+  </si>
+  <si>
+    <t>good|food|fresh</t>
+  </si>
+  <si>
+    <t>upscale|upscale|place|restaurant|rice|rice|price|would</t>
+  </si>
+  <si>
+    <t>place|food|thing</t>
+  </si>
+  <si>
+    <t>place|dinner|romantic|deal</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>menu|came|wonderful|also|deal</t>
+  </si>
+  <si>
+    <t>good|great|rice|price|enough|reasonable|thing</t>
+  </si>
+  <si>
+    <t>service|even|drink</t>
+  </si>
+  <si>
+    <t>service|good|great|fresh|sauce|kimchi|free</t>
+  </si>
+  <si>
+    <t>good|food|rice|back|price|would</t>
+  </si>
+  <si>
+    <t>restaurant|bland|took</t>
+  </si>
+  <si>
+    <t>menu|list|would|dollar|reasonable</t>
   </si>
   <si>
     <t>negative</t>
@@ -4986,7 +5436,7 @@
         <v>1335</v>
       </c>
       <c r="G2" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5006,10 +5456,10 @@
         <v>1275</v>
       </c>
       <c r="F3" t="s">
-        <v>936</v>
+        <v>1336</v>
       </c>
       <c r="G3" t="s">
-        <v>1488</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5029,10 +5479,10 @@
         <v>1276</v>
       </c>
       <c r="F4" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="G4" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5051,11 +5501,8 @@
       <c r="E5" t="s">
         <v>1275</v>
       </c>
-      <c r="F5" t="s">
-        <v>1337</v>
-      </c>
       <c r="G5" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5078,7 +5525,7 @@
         <v>1338</v>
       </c>
       <c r="G6" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5097,8 +5544,11 @@
       <c r="E7" t="s">
         <v>1274</v>
       </c>
+      <c r="F7" t="s">
+        <v>1339</v>
+      </c>
       <c r="G7" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5118,10 +5568,10 @@
         <v>1276</v>
       </c>
       <c r="F8" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="G8" t="s">
-        <v>1491</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5141,10 +5591,10 @@
         <v>1275</v>
       </c>
       <c r="F9" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="G9" t="s">
-        <v>1492</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5164,10 +5614,10 @@
         <v>1278</v>
       </c>
       <c r="F10" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="G10" t="s">
-        <v>1493</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5187,10 +5637,10 @@
         <v>1279</v>
       </c>
       <c r="F11" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="G11" t="s">
-        <v>1493</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5209,8 +5659,11 @@
       <c r="E12" t="s">
         <v>1276</v>
       </c>
+      <c r="F12" t="s">
+        <v>1344</v>
+      </c>
       <c r="G12" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5230,10 +5683,10 @@
         <v>1280</v>
       </c>
       <c r="F13" t="s">
-        <v>936</v>
+        <v>1345</v>
       </c>
       <c r="G13" t="s">
-        <v>1492</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5252,8 +5705,11 @@
       <c r="E14" t="s">
         <v>1276</v>
       </c>
+      <c r="F14" t="s">
+        <v>1346</v>
+      </c>
       <c r="G14" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -5272,11 +5728,8 @@
       <c r="E15" t="s">
         <v>1275</v>
       </c>
-      <c r="F15" t="s">
-        <v>1343</v>
-      </c>
       <c r="G15" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5299,7 +5752,7 @@
         <v>1092</v>
       </c>
       <c r="G16" t="s">
-        <v>1494</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -5318,8 +5771,11 @@
       <c r="E17" t="s">
         <v>1282</v>
       </c>
+      <c r="F17" t="s">
+        <v>1347</v>
+      </c>
       <c r="G17" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5339,10 +5795,10 @@
         <v>1275</v>
       </c>
       <c r="F18" t="s">
-        <v>1344</v>
+        <v>1348</v>
       </c>
       <c r="G18" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -5362,10 +5818,10 @@
         <v>1274</v>
       </c>
       <c r="F19" t="s">
-        <v>1345</v>
+        <v>1349</v>
       </c>
       <c r="G19" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -5385,10 +5841,10 @@
         <v>1276</v>
       </c>
       <c r="F20" t="s">
-        <v>936</v>
+        <v>1350</v>
       </c>
       <c r="G20" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -5408,10 +5864,10 @@
         <v>1274</v>
       </c>
       <c r="F21" t="s">
-        <v>1346</v>
+        <v>1351</v>
       </c>
       <c r="G21" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -5431,7 +5887,7 @@
         <v>1283</v>
       </c>
       <c r="G22" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -5454,7 +5910,7 @@
         <v>936</v>
       </c>
       <c r="G23" t="s">
-        <v>1491</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -5477,7 +5933,7 @@
         <v>951</v>
       </c>
       <c r="G24" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -5497,10 +5953,10 @@
         <v>1274</v>
       </c>
       <c r="F25" t="s">
-        <v>1347</v>
+        <v>1352</v>
       </c>
       <c r="G25" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -5520,10 +5976,10 @@
         <v>1276</v>
       </c>
       <c r="F26" t="s">
-        <v>1339</v>
+        <v>1353</v>
       </c>
       <c r="G26" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -5546,7 +6002,7 @@
         <v>951</v>
       </c>
       <c r="G27" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -5566,10 +6022,10 @@
         <v>1276</v>
       </c>
       <c r="F28" t="s">
-        <v>971</v>
+        <v>1354</v>
       </c>
       <c r="G28" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -5588,8 +6044,11 @@
       <c r="E29" t="s">
         <v>1275</v>
       </c>
+      <c r="F29" t="s">
+        <v>1355</v>
+      </c>
       <c r="G29" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -5609,10 +6068,10 @@
         <v>1276</v>
       </c>
       <c r="F30" t="s">
-        <v>1348</v>
+        <v>1356</v>
       </c>
       <c r="G30" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -5632,10 +6091,10 @@
         <v>1277</v>
       </c>
       <c r="F31" t="s">
-        <v>1349</v>
+        <v>1357</v>
       </c>
       <c r="G31" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -5655,10 +6114,10 @@
         <v>1282</v>
       </c>
       <c r="F32" t="s">
-        <v>1350</v>
+        <v>1358</v>
       </c>
       <c r="G32" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -5677,8 +6136,11 @@
       <c r="E33" t="s">
         <v>1284</v>
       </c>
+      <c r="F33" t="s">
+        <v>1359</v>
+      </c>
       <c r="G33" t="s">
-        <v>1493</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -5698,10 +6160,10 @@
         <v>1284</v>
       </c>
       <c r="F34" t="s">
-        <v>936</v>
+        <v>1360</v>
       </c>
       <c r="G34" t="s">
-        <v>1493</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -5721,10 +6183,10 @@
         <v>1276</v>
       </c>
       <c r="F35" t="s">
-        <v>1351</v>
+        <v>1361</v>
       </c>
       <c r="G35" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -5744,10 +6206,10 @@
         <v>1282</v>
       </c>
       <c r="F36" t="s">
-        <v>1352</v>
+        <v>1362</v>
       </c>
       <c r="G36" t="s">
-        <v>1495</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -5767,10 +6229,10 @@
         <v>1285</v>
       </c>
       <c r="F37" t="s">
-        <v>1347</v>
+        <v>1363</v>
       </c>
       <c r="G37" t="s">
-        <v>1496</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -5790,10 +6252,10 @@
         <v>1274</v>
       </c>
       <c r="F38" t="s">
-        <v>1353</v>
+        <v>951</v>
       </c>
       <c r="G38" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -5812,11 +6274,8 @@
       <c r="E39" t="s">
         <v>1274</v>
       </c>
-      <c r="F39" t="s">
-        <v>1337</v>
-      </c>
       <c r="G39" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -5836,10 +6295,10 @@
         <v>1276</v>
       </c>
       <c r="F40" t="s">
-        <v>1354</v>
+        <v>1364</v>
       </c>
       <c r="G40" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -5859,10 +6318,10 @@
         <v>1283</v>
       </c>
       <c r="F41" t="s">
-        <v>1355</v>
+        <v>1365</v>
       </c>
       <c r="G41" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -5881,8 +6340,11 @@
       <c r="E42" t="s">
         <v>1283</v>
       </c>
+      <c r="F42" t="s">
+        <v>1366</v>
+      </c>
       <c r="G42" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -5902,10 +6364,10 @@
         <v>1278</v>
       </c>
       <c r="F43" t="s">
-        <v>1356</v>
+        <v>1367</v>
       </c>
       <c r="G43" t="s">
-        <v>1493</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -5924,8 +6386,11 @@
       <c r="E44" t="s">
         <v>1276</v>
       </c>
+      <c r="F44" t="s">
+        <v>1368</v>
+      </c>
       <c r="G44" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -5945,7 +6410,7 @@
         <v>1283</v>
       </c>
       <c r="G45" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -5965,10 +6430,10 @@
         <v>1283</v>
       </c>
       <c r="F46" t="s">
-        <v>971</v>
+        <v>1369</v>
       </c>
       <c r="G46" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -5991,7 +6456,7 @@
         <v>936</v>
       </c>
       <c r="G47" t="s">
-        <v>1497</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -6014,7 +6479,7 @@
         <v>936</v>
       </c>
       <c r="G48" t="s">
-        <v>1498</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -6034,10 +6499,10 @@
         <v>1275</v>
       </c>
       <c r="F49" t="s">
-        <v>992</v>
+        <v>1370</v>
       </c>
       <c r="G49" t="s">
-        <v>1488</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -6057,10 +6522,10 @@
         <v>1277</v>
       </c>
       <c r="F50" t="s">
-        <v>1357</v>
+        <v>1371</v>
       </c>
       <c r="G50" t="s">
-        <v>1488</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -6080,10 +6545,10 @@
         <v>1280</v>
       </c>
       <c r="F51" t="s">
-        <v>1358</v>
+        <v>1372</v>
       </c>
       <c r="G51" t="s">
-        <v>1499</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -6103,7 +6568,7 @@
         <v>1276</v>
       </c>
       <c r="G52" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -6123,10 +6588,10 @@
         <v>1280</v>
       </c>
       <c r="F53" t="s">
-        <v>1359</v>
+        <v>1373</v>
       </c>
       <c r="G53" t="s">
-        <v>1493</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -6145,8 +6610,11 @@
       <c r="E54" t="s">
         <v>1276</v>
       </c>
+      <c r="F54" t="s">
+        <v>1374</v>
+      </c>
       <c r="G54" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -6166,10 +6634,10 @@
         <v>1275</v>
       </c>
       <c r="F55" t="s">
-        <v>1351</v>
+        <v>1361</v>
       </c>
       <c r="G55" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -6188,8 +6656,11 @@
       <c r="E56" t="s">
         <v>1275</v>
       </c>
+      <c r="F56" t="s">
+        <v>1375</v>
+      </c>
       <c r="G56" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -6209,10 +6680,10 @@
         <v>1288</v>
       </c>
       <c r="F57" t="s">
-        <v>1360</v>
+        <v>1376</v>
       </c>
       <c r="G57" t="s">
-        <v>1500</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -6232,10 +6703,10 @@
         <v>1289</v>
       </c>
       <c r="F58" t="s">
-        <v>1361</v>
+        <v>1377</v>
       </c>
       <c r="G58" t="s">
-        <v>1501</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -6255,10 +6726,10 @@
         <v>1274</v>
       </c>
       <c r="F59" t="s">
-        <v>1362</v>
+        <v>1378</v>
       </c>
       <c r="G59" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -6278,10 +6749,10 @@
         <v>1277</v>
       </c>
       <c r="F60" t="s">
-        <v>1363</v>
+        <v>1379</v>
       </c>
       <c r="G60" t="s">
-        <v>1502</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -6301,10 +6772,10 @@
         <v>1290</v>
       </c>
       <c r="F61" t="s">
-        <v>1364</v>
+        <v>1380</v>
       </c>
       <c r="G61" t="s">
-        <v>1500</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -6323,11 +6794,8 @@
       <c r="E62" t="s">
         <v>1274</v>
       </c>
-      <c r="F62" t="s">
-        <v>1340</v>
-      </c>
       <c r="G62" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -6347,10 +6815,10 @@
         <v>1276</v>
       </c>
       <c r="F63" t="s">
-        <v>936</v>
+        <v>1381</v>
       </c>
       <c r="G63" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -6370,10 +6838,10 @@
         <v>1288</v>
       </c>
       <c r="F64" t="s">
-        <v>1365</v>
+        <v>1382</v>
       </c>
       <c r="G64" t="s">
-        <v>1493</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -6393,10 +6861,10 @@
         <v>1274</v>
       </c>
       <c r="F65" t="s">
-        <v>1366</v>
+        <v>1383</v>
       </c>
       <c r="G65" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -6416,10 +6884,10 @@
         <v>1276</v>
       </c>
       <c r="F66" t="s">
-        <v>1367</v>
+        <v>1384</v>
       </c>
       <c r="G66" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -6439,10 +6907,10 @@
         <v>1274</v>
       </c>
       <c r="F67" t="s">
-        <v>1345</v>
+        <v>1349</v>
       </c>
       <c r="G67" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -6462,10 +6930,10 @@
         <v>1274</v>
       </c>
       <c r="F68" t="s">
-        <v>1368</v>
+        <v>1385</v>
       </c>
       <c r="G68" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -6485,10 +6953,10 @@
         <v>1291</v>
       </c>
       <c r="F69" t="s">
-        <v>1369</v>
+        <v>1386</v>
       </c>
       <c r="G69" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -6507,11 +6975,8 @@
       <c r="E70" t="s">
         <v>1292</v>
       </c>
-      <c r="F70" t="s">
-        <v>992</v>
-      </c>
       <c r="G70" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -6531,7 +6996,7 @@
         <v>1293</v>
       </c>
       <c r="G71" t="s">
-        <v>1488</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -6551,10 +7016,10 @@
         <v>1276</v>
       </c>
       <c r="F72" t="s">
-        <v>1348</v>
+        <v>1387</v>
       </c>
       <c r="G72" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -6574,10 +7039,10 @@
         <v>1275</v>
       </c>
       <c r="F73" t="s">
-        <v>936</v>
+        <v>1388</v>
       </c>
       <c r="G73" t="s">
-        <v>1488</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -6597,10 +7062,10 @@
         <v>1294</v>
       </c>
       <c r="F74" t="s">
-        <v>936</v>
+        <v>1389</v>
       </c>
       <c r="G74" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -6620,10 +7085,10 @@
         <v>1274</v>
       </c>
       <c r="F75" t="s">
-        <v>1370</v>
+        <v>1390</v>
       </c>
       <c r="G75" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -6643,10 +7108,10 @@
         <v>1282</v>
       </c>
       <c r="F76" t="s">
-        <v>1371</v>
+        <v>1349</v>
       </c>
       <c r="G76" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -6666,7 +7131,7 @@
         <v>1274</v>
       </c>
       <c r="G77" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -6686,7 +7151,7 @@
         <v>1283</v>
       </c>
       <c r="G78" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -6705,8 +7170,11 @@
       <c r="E79" t="s">
         <v>1276</v>
       </c>
+      <c r="F79" t="s">
+        <v>999</v>
+      </c>
       <c r="G79" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -6726,10 +7194,10 @@
         <v>1287</v>
       </c>
       <c r="F80" t="s">
-        <v>1372</v>
+        <v>1391</v>
       </c>
       <c r="G80" t="s">
-        <v>1503</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -6749,10 +7217,10 @@
         <v>1276</v>
       </c>
       <c r="F81" t="s">
-        <v>1373</v>
+        <v>1392</v>
       </c>
       <c r="G81" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -6772,10 +7240,10 @@
         <v>1275</v>
       </c>
       <c r="F82" t="s">
-        <v>1374</v>
+        <v>1393</v>
       </c>
       <c r="G82" t="s">
-        <v>1493</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -6795,10 +7263,10 @@
         <v>1276</v>
       </c>
       <c r="F83" t="s">
-        <v>1375</v>
+        <v>1394</v>
       </c>
       <c r="G83" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -6818,10 +7286,10 @@
         <v>1295</v>
       </c>
       <c r="F84" t="s">
-        <v>1376</v>
+        <v>1395</v>
       </c>
       <c r="G84" t="s">
-        <v>1502</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -6844,7 +7312,7 @@
         <v>936</v>
       </c>
       <c r="G85" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -6863,8 +7331,11 @@
       <c r="E86" t="s">
         <v>1276</v>
       </c>
+      <c r="F86" t="s">
+        <v>1003</v>
+      </c>
       <c r="G86" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -6884,10 +7355,10 @@
         <v>1280</v>
       </c>
       <c r="F87" t="s">
-        <v>1348</v>
+        <v>1396</v>
       </c>
       <c r="G87" t="s">
-        <v>1504</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -6907,10 +7378,10 @@
         <v>1276</v>
       </c>
       <c r="F88" t="s">
-        <v>1373</v>
+        <v>1392</v>
       </c>
       <c r="G88" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -6930,7 +7401,7 @@
         <v>1283</v>
       </c>
       <c r="G89" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -6950,10 +7421,10 @@
         <v>1282</v>
       </c>
       <c r="F90" t="s">
-        <v>1350</v>
+        <v>1358</v>
       </c>
       <c r="G90" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -6973,10 +7444,10 @@
         <v>1276</v>
       </c>
       <c r="F91" t="s">
-        <v>1351</v>
+        <v>1397</v>
       </c>
       <c r="G91" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -6996,10 +7467,10 @@
         <v>1296</v>
       </c>
       <c r="F92" t="s">
-        <v>971</v>
+        <v>1398</v>
       </c>
       <c r="G92" t="s">
-        <v>1495</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -7019,10 +7490,10 @@
         <v>1284</v>
       </c>
       <c r="F93" t="s">
-        <v>1377</v>
+        <v>1399</v>
       </c>
       <c r="G93" t="s">
-        <v>1493</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -7042,10 +7513,10 @@
         <v>1297</v>
       </c>
       <c r="F94" t="s">
-        <v>1378</v>
+        <v>1400</v>
       </c>
       <c r="G94" t="s">
-        <v>1505</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -7065,10 +7536,10 @@
         <v>1275</v>
       </c>
       <c r="F95" t="s">
-        <v>1379</v>
+        <v>1401</v>
       </c>
       <c r="G95" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -7088,10 +7559,10 @@
         <v>1287</v>
       </c>
       <c r="F96" t="s">
-        <v>1380</v>
+        <v>1402</v>
       </c>
       <c r="G96" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -7111,10 +7582,10 @@
         <v>1298</v>
       </c>
       <c r="F97" t="s">
-        <v>1381</v>
+        <v>1403</v>
       </c>
       <c r="G97" t="s">
-        <v>1493</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -7133,8 +7604,11 @@
       <c r="E98" t="s">
         <v>1276</v>
       </c>
+      <c r="F98" t="s">
+        <v>1404</v>
+      </c>
       <c r="G98" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -7153,8 +7627,11 @@
       <c r="E99" t="s">
         <v>1275</v>
       </c>
+      <c r="F99" t="s">
+        <v>1405</v>
+      </c>
       <c r="G99" t="s">
-        <v>1495</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -7174,10 +7651,10 @@
         <v>1274</v>
       </c>
       <c r="F100" t="s">
-        <v>1340</v>
+        <v>1406</v>
       </c>
       <c r="G100" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -7197,10 +7674,10 @@
         <v>1277</v>
       </c>
       <c r="F101" t="s">
-        <v>1349</v>
+        <v>1371</v>
       </c>
       <c r="G101" t="s">
-        <v>1488</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -7220,10 +7697,10 @@
         <v>1277</v>
       </c>
       <c r="F102" t="s">
-        <v>1382</v>
+        <v>1407</v>
       </c>
       <c r="G102" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -7242,8 +7719,11 @@
       <c r="E103" t="s">
         <v>1276</v>
       </c>
+      <c r="F103" t="s">
+        <v>1344</v>
+      </c>
       <c r="G103" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -7263,10 +7743,10 @@
         <v>1274</v>
       </c>
       <c r="F104" t="s">
-        <v>951</v>
+        <v>1408</v>
       </c>
       <c r="G104" t="s">
-        <v>1491</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -7286,10 +7766,10 @@
         <v>1283</v>
       </c>
       <c r="F105" t="s">
-        <v>1383</v>
+        <v>1409</v>
       </c>
       <c r="G105" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -7309,10 +7789,10 @@
         <v>1283</v>
       </c>
       <c r="F106" t="s">
-        <v>971</v>
+        <v>1410</v>
       </c>
       <c r="G106" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -7332,10 +7812,10 @@
         <v>1275</v>
       </c>
       <c r="F107" t="s">
-        <v>936</v>
+        <v>1411</v>
       </c>
       <c r="G107" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -7354,11 +7834,8 @@
       <c r="E108" t="s">
         <v>1274</v>
       </c>
-      <c r="F108" t="s">
-        <v>934</v>
-      </c>
       <c r="G108" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -7378,10 +7855,10 @@
         <v>1284</v>
       </c>
       <c r="F109" t="s">
-        <v>1363</v>
+        <v>1412</v>
       </c>
       <c r="G109" t="s">
-        <v>1493</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -7400,8 +7877,11 @@
       <c r="E110" t="s">
         <v>1274</v>
       </c>
+      <c r="F110" t="s">
+        <v>1413</v>
+      </c>
       <c r="G110" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -7421,10 +7901,10 @@
         <v>1294</v>
       </c>
       <c r="F111" t="s">
-        <v>1384</v>
+        <v>1414</v>
       </c>
       <c r="G111" t="s">
-        <v>1506</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -7443,8 +7923,11 @@
       <c r="E112" t="s">
         <v>1296</v>
       </c>
+      <c r="F112" t="s">
+        <v>1415</v>
+      </c>
       <c r="G112" t="s">
-        <v>1493</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -7464,10 +7947,10 @@
         <v>1274</v>
       </c>
       <c r="F113" t="s">
-        <v>1385</v>
+        <v>1378</v>
       </c>
       <c r="G113" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -7487,10 +7970,10 @@
         <v>1276</v>
       </c>
       <c r="F114" t="s">
-        <v>1378</v>
+        <v>1400</v>
       </c>
       <c r="G114" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -7510,10 +7993,10 @@
         <v>1275</v>
       </c>
       <c r="F115" t="s">
-        <v>1373</v>
+        <v>1416</v>
       </c>
       <c r="G115" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -7533,10 +8016,10 @@
         <v>1283</v>
       </c>
       <c r="F116" t="s">
-        <v>1068</v>
+        <v>1417</v>
       </c>
       <c r="G116" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -7559,7 +8042,7 @@
         <v>951</v>
       </c>
       <c r="G117" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -7579,10 +8062,10 @@
         <v>1294</v>
       </c>
       <c r="F118" t="s">
-        <v>1386</v>
+        <v>1418</v>
       </c>
       <c r="G118" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -7602,10 +8085,10 @@
         <v>1275</v>
       </c>
       <c r="F119" t="s">
-        <v>1387</v>
+        <v>1374</v>
       </c>
       <c r="G119" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -7625,10 +8108,10 @@
         <v>1276</v>
       </c>
       <c r="F120" t="s">
-        <v>1355</v>
+        <v>1419</v>
       </c>
       <c r="G120" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -7648,10 +8131,10 @@
         <v>1294</v>
       </c>
       <c r="F121" t="s">
-        <v>934</v>
+        <v>1420</v>
       </c>
       <c r="G121" t="s">
-        <v>1503</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -7671,10 +8154,10 @@
         <v>1276</v>
       </c>
       <c r="F122" t="s">
-        <v>1388</v>
+        <v>1421</v>
       </c>
       <c r="G122" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -7694,10 +8177,10 @@
         <v>1276</v>
       </c>
       <c r="F123" t="s">
-        <v>971</v>
+        <v>1422</v>
       </c>
       <c r="G123" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -7717,10 +8200,10 @@
         <v>1299</v>
       </c>
       <c r="F124" t="s">
-        <v>951</v>
+        <v>1423</v>
       </c>
       <c r="G124" t="s">
-        <v>1500</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -7739,11 +8222,8 @@
       <c r="E125" t="s">
         <v>1274</v>
       </c>
-      <c r="F125" t="s">
-        <v>934</v>
-      </c>
       <c r="G125" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -7766,7 +8246,7 @@
         <v>936</v>
       </c>
       <c r="G126" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -7786,10 +8266,10 @@
         <v>1276</v>
       </c>
       <c r="F127" t="s">
-        <v>1389</v>
+        <v>1424</v>
       </c>
       <c r="G127" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -7809,10 +8289,10 @@
         <v>1276</v>
       </c>
       <c r="F128" t="s">
-        <v>1343</v>
+        <v>1425</v>
       </c>
       <c r="G128" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -7831,8 +8311,11 @@
       <c r="E129" t="s">
         <v>1276</v>
       </c>
+      <c r="F129" t="s">
+        <v>1003</v>
+      </c>
       <c r="G129" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -7851,8 +8334,11 @@
       <c r="E130" t="s">
         <v>1275</v>
       </c>
+      <c r="F130" t="s">
+        <v>1426</v>
+      </c>
       <c r="G130" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -7872,10 +8358,10 @@
         <v>1274</v>
       </c>
       <c r="F131" t="s">
-        <v>1390</v>
+        <v>1427</v>
       </c>
       <c r="G131" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -7895,10 +8381,10 @@
         <v>1275</v>
       </c>
       <c r="F132" t="s">
-        <v>1378</v>
+        <v>1428</v>
       </c>
       <c r="G132" t="s">
-        <v>1495</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -7918,10 +8404,10 @@
         <v>1275</v>
       </c>
       <c r="F133" t="s">
-        <v>1391</v>
+        <v>1429</v>
       </c>
       <c r="G133" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -7941,10 +8427,10 @@
         <v>1296</v>
       </c>
       <c r="F134" t="s">
-        <v>971</v>
+        <v>1430</v>
       </c>
       <c r="G134" t="s">
-        <v>1495</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -7964,10 +8450,10 @@
         <v>1274</v>
       </c>
       <c r="F135" t="s">
-        <v>1390</v>
+        <v>1427</v>
       </c>
       <c r="G135" t="s">
-        <v>1491</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -7987,10 +8473,10 @@
         <v>1274</v>
       </c>
       <c r="F136" t="s">
-        <v>1392</v>
+        <v>1431</v>
       </c>
       <c r="G136" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -8010,10 +8496,10 @@
         <v>1275</v>
       </c>
       <c r="F137" t="s">
-        <v>1378</v>
+        <v>1432</v>
       </c>
       <c r="G137" t="s">
-        <v>1495</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -8033,10 +8519,10 @@
         <v>1296</v>
       </c>
       <c r="F138" t="s">
-        <v>1351</v>
+        <v>1433</v>
       </c>
       <c r="G138" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -8056,10 +8542,10 @@
         <v>1296</v>
       </c>
       <c r="F139" t="s">
-        <v>1393</v>
+        <v>1434</v>
       </c>
       <c r="G139" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -8078,8 +8564,11 @@
       <c r="E140" t="s">
         <v>1276</v>
       </c>
+      <c r="F140" t="s">
+        <v>1435</v>
+      </c>
       <c r="G140" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -8099,10 +8588,10 @@
         <v>1283</v>
       </c>
       <c r="F141" t="s">
-        <v>971</v>
+        <v>1436</v>
       </c>
       <c r="G141" t="s">
-        <v>1491</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -8122,10 +8611,10 @@
         <v>1275</v>
       </c>
       <c r="F142" t="s">
-        <v>1394</v>
+        <v>1437</v>
       </c>
       <c r="G142" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -8145,10 +8634,10 @@
         <v>1274</v>
       </c>
       <c r="F143" t="s">
-        <v>936</v>
+        <v>1438</v>
       </c>
       <c r="G143" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -8168,10 +8657,10 @@
         <v>1296</v>
       </c>
       <c r="F144" t="s">
-        <v>1395</v>
+        <v>1439</v>
       </c>
       <c r="G144" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -8191,10 +8680,10 @@
         <v>1280</v>
       </c>
       <c r="F145" t="s">
-        <v>936</v>
+        <v>1440</v>
       </c>
       <c r="G145" t="s">
-        <v>1493</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -8214,7 +8703,7 @@
         <v>1276</v>
       </c>
       <c r="G146" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -8233,8 +8722,11 @@
       <c r="E147" t="s">
         <v>1276</v>
       </c>
+      <c r="F147" t="s">
+        <v>1441</v>
+      </c>
       <c r="G147" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -8254,10 +8746,10 @@
         <v>1282</v>
       </c>
       <c r="F148" t="s">
-        <v>1396</v>
+        <v>1358</v>
       </c>
       <c r="G148" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -8276,8 +8768,11 @@
       <c r="E149" t="s">
         <v>1275</v>
       </c>
+      <c r="F149" t="s">
+        <v>1442</v>
+      </c>
       <c r="G149" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -8296,11 +8791,8 @@
       <c r="E150" t="s">
         <v>1280</v>
       </c>
-      <c r="F150" t="s">
-        <v>992</v>
-      </c>
       <c r="G150" t="s">
-        <v>1493</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -8320,10 +8812,10 @@
         <v>1300</v>
       </c>
       <c r="F151" t="s">
-        <v>1350</v>
+        <v>1443</v>
       </c>
       <c r="G151" t="s">
-        <v>1493</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -8342,11 +8834,8 @@
       <c r="E152" t="s">
         <v>1274</v>
       </c>
-      <c r="F152" t="s">
-        <v>934</v>
-      </c>
       <c r="G152" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -8365,8 +8854,11 @@
       <c r="E153" t="s">
         <v>1276</v>
       </c>
+      <c r="F153" t="s">
+        <v>1444</v>
+      </c>
       <c r="G153" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -8385,8 +8877,11 @@
       <c r="E154" t="s">
         <v>1275</v>
       </c>
+      <c r="F154" t="s">
+        <v>1445</v>
+      </c>
       <c r="G154" t="s">
-        <v>1507</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -8406,10 +8901,10 @@
         <v>1274</v>
       </c>
       <c r="F155" t="s">
-        <v>1397</v>
+        <v>1446</v>
       </c>
       <c r="G155" t="s">
-        <v>1495</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -8429,10 +8924,10 @@
         <v>1301</v>
       </c>
       <c r="F156" t="s">
-        <v>1373</v>
+        <v>1447</v>
       </c>
       <c r="G156" t="s">
-        <v>1508</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -8451,8 +8946,11 @@
       <c r="E157" t="s">
         <v>1275</v>
       </c>
+      <c r="F157" t="s">
+        <v>1448</v>
+      </c>
       <c r="G157" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -8472,10 +8970,10 @@
         <v>1302</v>
       </c>
       <c r="F158" t="s">
-        <v>1341</v>
+        <v>1449</v>
       </c>
       <c r="G158" t="s">
-        <v>1495</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -8495,10 +8993,10 @@
         <v>1276</v>
       </c>
       <c r="F159" t="s">
-        <v>1388</v>
+        <v>1450</v>
       </c>
       <c r="G159" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -8518,7 +9016,7 @@
         <v>1276</v>
       </c>
       <c r="G160" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -8537,8 +9035,11 @@
       <c r="E161" t="s">
         <v>1276</v>
       </c>
+      <c r="F161" t="s">
+        <v>1451</v>
+      </c>
       <c r="G161" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -8557,8 +9058,11 @@
       <c r="E162" t="s">
         <v>1276</v>
       </c>
+      <c r="F162" t="s">
+        <v>1344</v>
+      </c>
       <c r="G162" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -8578,10 +9082,10 @@
         <v>1283</v>
       </c>
       <c r="F163" t="s">
-        <v>1351</v>
+        <v>1452</v>
       </c>
       <c r="G163" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -8601,10 +9105,10 @@
         <v>1283</v>
       </c>
       <c r="F164" t="s">
-        <v>1398</v>
+        <v>1453</v>
       </c>
       <c r="G164" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -8624,10 +9128,10 @@
         <v>1283</v>
       </c>
       <c r="F165" t="s">
-        <v>1348</v>
+        <v>1454</v>
       </c>
       <c r="G165" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -8647,7 +9151,7 @@
         <v>1276</v>
       </c>
       <c r="G166" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -8667,10 +9171,10 @@
         <v>1276</v>
       </c>
       <c r="F167" t="s">
-        <v>1351</v>
+        <v>1455</v>
       </c>
       <c r="G167" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -8690,7 +9194,7 @@
         <v>1276</v>
       </c>
       <c r="G168" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -8710,10 +9214,10 @@
         <v>1277</v>
       </c>
       <c r="F169" t="s">
-        <v>1348</v>
+        <v>1456</v>
       </c>
       <c r="G169" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -8733,10 +9237,10 @@
         <v>1284</v>
       </c>
       <c r="F170" t="s">
-        <v>1399</v>
+        <v>1457</v>
       </c>
       <c r="G170" t="s">
-        <v>1493</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -8756,10 +9260,10 @@
         <v>1276</v>
       </c>
       <c r="F171" t="s">
-        <v>1348</v>
+        <v>1409</v>
       </c>
       <c r="G171" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -8779,10 +9283,10 @@
         <v>1277</v>
       </c>
       <c r="F172" t="s">
-        <v>936</v>
+        <v>1458</v>
       </c>
       <c r="G172" t="s">
-        <v>1488</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -8802,10 +9306,10 @@
         <v>1303</v>
       </c>
       <c r="F173" t="s">
-        <v>1400</v>
+        <v>1459</v>
       </c>
       <c r="G173" t="s">
-        <v>1500</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -8825,10 +9329,10 @@
         <v>1298</v>
       </c>
       <c r="F174" t="s">
-        <v>1068</v>
+        <v>1460</v>
       </c>
       <c r="G174" t="s">
-        <v>1503</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -8848,10 +9352,10 @@
         <v>1304</v>
       </c>
       <c r="F175" t="s">
-        <v>1349</v>
+        <v>1461</v>
       </c>
       <c r="G175" t="s">
-        <v>1500</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -8871,10 +9375,10 @@
         <v>1274</v>
       </c>
       <c r="F176" t="s">
-        <v>1351</v>
+        <v>1361</v>
       </c>
       <c r="G176" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -8893,11 +9397,8 @@
       <c r="E177" t="s">
         <v>1275</v>
       </c>
-      <c r="F177" t="s">
-        <v>1401</v>
-      </c>
       <c r="G177" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -8917,10 +9418,10 @@
         <v>1294</v>
       </c>
       <c r="F178" t="s">
-        <v>1402</v>
+        <v>1462</v>
       </c>
       <c r="G178" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -8939,8 +9440,11 @@
       <c r="E179" t="s">
         <v>1275</v>
       </c>
+      <c r="F179" t="s">
+        <v>1463</v>
+      </c>
       <c r="G179" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -8960,10 +9464,10 @@
         <v>1305</v>
       </c>
       <c r="F180" t="s">
-        <v>1403</v>
+        <v>1464</v>
       </c>
       <c r="G180" t="s">
-        <v>1493</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -8982,8 +9486,11 @@
       <c r="E181" t="s">
         <v>1274</v>
       </c>
+      <c r="F181" t="s">
+        <v>1465</v>
+      </c>
       <c r="G181" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -9003,10 +9510,10 @@
         <v>1282</v>
       </c>
       <c r="F182" t="s">
-        <v>1404</v>
+        <v>1466</v>
       </c>
       <c r="G182" t="s">
-        <v>1498</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -9026,10 +9533,10 @@
         <v>1306</v>
       </c>
       <c r="F183" t="s">
-        <v>1405</v>
+        <v>1467</v>
       </c>
       <c r="G183" t="s">
-        <v>1509</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -9049,10 +9556,10 @@
         <v>1307</v>
       </c>
       <c r="F184" t="s">
-        <v>1406</v>
+        <v>1468</v>
       </c>
       <c r="G184" t="s">
-        <v>1500</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -9072,10 +9579,10 @@
         <v>1291</v>
       </c>
       <c r="F185" t="s">
-        <v>1407</v>
+        <v>1469</v>
       </c>
       <c r="G185" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -9094,8 +9601,11 @@
       <c r="E186" t="s">
         <v>1275</v>
       </c>
+      <c r="F186" t="s">
+        <v>1463</v>
+      </c>
       <c r="G186" t="s">
-        <v>1503</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -9114,11 +9624,8 @@
       <c r="E187" t="s">
         <v>1276</v>
       </c>
-      <c r="F187" t="s">
-        <v>992</v>
-      </c>
       <c r="G187" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -9138,10 +9645,10 @@
         <v>1276</v>
       </c>
       <c r="F188" t="s">
-        <v>1348</v>
+        <v>1409</v>
       </c>
       <c r="G188" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -9160,8 +9667,11 @@
       <c r="E189" t="s">
         <v>1276</v>
       </c>
+      <c r="F189" t="s">
+        <v>1470</v>
+      </c>
       <c r="G189" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -9181,10 +9691,10 @@
         <v>1308</v>
       </c>
       <c r="F190" t="s">
-        <v>1346</v>
+        <v>1471</v>
       </c>
       <c r="G190" t="s">
-        <v>1503</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -9204,10 +9714,10 @@
         <v>1283</v>
       </c>
       <c r="F191" t="s">
-        <v>1408</v>
+        <v>1092</v>
       </c>
       <c r="G191" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -9227,10 +9737,10 @@
         <v>1276</v>
       </c>
       <c r="F192" t="s">
-        <v>936</v>
+        <v>1472</v>
       </c>
       <c r="G192" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -9250,10 +9760,10 @@
         <v>1275</v>
       </c>
       <c r="F193" t="s">
-        <v>992</v>
+        <v>1473</v>
       </c>
       <c r="G193" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -9276,7 +9786,7 @@
         <v>951</v>
       </c>
       <c r="G194" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -9299,7 +9809,7 @@
         <v>936</v>
       </c>
       <c r="G195" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -9319,10 +9829,10 @@
         <v>1275</v>
       </c>
       <c r="F196" t="s">
-        <v>1409</v>
+        <v>1474</v>
       </c>
       <c r="G196" t="s">
-        <v>1488</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -9342,10 +9852,10 @@
         <v>1309</v>
       </c>
       <c r="F197" t="s">
-        <v>1345</v>
+        <v>1475</v>
       </c>
       <c r="G197" t="s">
-        <v>1488</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -9365,10 +9875,10 @@
         <v>1282</v>
       </c>
       <c r="F198" t="s">
-        <v>1410</v>
+        <v>1476</v>
       </c>
       <c r="G198" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -9388,7 +9898,7 @@
         <v>1276</v>
       </c>
       <c r="G199" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -9411,7 +9921,7 @@
         <v>971</v>
       </c>
       <c r="G200" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -9431,10 +9941,10 @@
         <v>1283</v>
       </c>
       <c r="F201" t="s">
-        <v>1347</v>
+        <v>1386</v>
       </c>
       <c r="G201" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -9453,8 +9963,11 @@
       <c r="E202" t="s">
         <v>1276</v>
       </c>
+      <c r="F202" t="s">
+        <v>999</v>
+      </c>
       <c r="G202" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -9473,8 +9986,11 @@
       <c r="E203" t="s">
         <v>1295</v>
       </c>
+      <c r="F203" t="s">
+        <v>1477</v>
+      </c>
       <c r="G203" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -9493,8 +10009,11 @@
       <c r="E204" t="s">
         <v>1276</v>
       </c>
+      <c r="F204" t="s">
+        <v>1478</v>
+      </c>
       <c r="G204" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -9514,10 +10033,10 @@
         <v>1276</v>
       </c>
       <c r="F205" t="s">
-        <v>1395</v>
+        <v>1469</v>
       </c>
       <c r="G205" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -9537,10 +10056,10 @@
         <v>1283</v>
       </c>
       <c r="F206" t="s">
-        <v>1395</v>
+        <v>1469</v>
       </c>
       <c r="G206" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -9560,10 +10079,10 @@
         <v>1307</v>
       </c>
       <c r="F207" t="s">
-        <v>1411</v>
+        <v>1479</v>
       </c>
       <c r="G207" t="s">
-        <v>1500</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -9583,10 +10102,10 @@
         <v>1283</v>
       </c>
       <c r="F208" t="s">
-        <v>1092</v>
+        <v>1480</v>
       </c>
       <c r="G208" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -9606,10 +10125,10 @@
         <v>1310</v>
       </c>
       <c r="F209" t="s">
-        <v>1412</v>
+        <v>1481</v>
       </c>
       <c r="G209" t="s">
-        <v>1506</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -9629,10 +10148,10 @@
         <v>1277</v>
       </c>
       <c r="F210" t="s">
-        <v>1413</v>
+        <v>1482</v>
       </c>
       <c r="G210" t="s">
-        <v>1488</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -9652,10 +10171,10 @@
         <v>1274</v>
       </c>
       <c r="F211" t="s">
-        <v>1414</v>
+        <v>1483</v>
       </c>
       <c r="G211" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -9675,10 +10194,10 @@
         <v>1274</v>
       </c>
       <c r="F212" t="s">
-        <v>951</v>
+        <v>1484</v>
       </c>
       <c r="G212" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -9698,10 +10217,10 @@
         <v>1276</v>
       </c>
       <c r="F213" t="s">
-        <v>936</v>
+        <v>1485</v>
       </c>
       <c r="G213" t="s">
-        <v>1495</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -9720,8 +10239,11 @@
       <c r="E214" t="s">
         <v>1275</v>
       </c>
+      <c r="F214" t="s">
+        <v>1486</v>
+      </c>
       <c r="G214" t="s">
-        <v>1488</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -9741,7 +10263,7 @@
         <v>1276</v>
       </c>
       <c r="G215" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -9761,10 +10283,10 @@
         <v>1309</v>
       </c>
       <c r="F216" t="s">
-        <v>1415</v>
+        <v>1487</v>
       </c>
       <c r="G216" t="s">
-        <v>1510</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -9783,8 +10305,11 @@
       <c r="E217" t="s">
         <v>1276</v>
       </c>
+      <c r="F217" t="s">
+        <v>1488</v>
+      </c>
       <c r="G217" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -9804,10 +10329,10 @@
         <v>1276</v>
       </c>
       <c r="F218" t="s">
-        <v>1347</v>
+        <v>1386</v>
       </c>
       <c r="G218" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -9827,10 +10352,10 @@
         <v>1294</v>
       </c>
       <c r="F219" t="s">
-        <v>1416</v>
+        <v>1489</v>
       </c>
       <c r="G219" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -9850,10 +10375,10 @@
         <v>1276</v>
       </c>
       <c r="F220" t="s">
-        <v>1373</v>
+        <v>1392</v>
       </c>
       <c r="G220" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -9873,10 +10398,10 @@
         <v>1309</v>
       </c>
       <c r="F221" t="s">
-        <v>1417</v>
+        <v>1490</v>
       </c>
       <c r="G221" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -9895,8 +10420,11 @@
       <c r="E222" t="s">
         <v>1283</v>
       </c>
+      <c r="F222" t="s">
+        <v>1491</v>
+      </c>
       <c r="G222" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -9916,10 +10444,10 @@
         <v>1308</v>
       </c>
       <c r="F223" t="s">
-        <v>1418</v>
+        <v>1492</v>
       </c>
       <c r="G223" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -9939,10 +10467,10 @@
         <v>1311</v>
       </c>
       <c r="F224" t="s">
-        <v>951</v>
+        <v>1493</v>
       </c>
       <c r="G224" t="s">
-        <v>1493</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -9962,10 +10490,10 @@
         <v>1274</v>
       </c>
       <c r="F225" t="s">
-        <v>1418</v>
+        <v>951</v>
       </c>
       <c r="G225" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -9985,10 +10513,10 @@
         <v>1309</v>
       </c>
       <c r="F226" t="s">
-        <v>1419</v>
+        <v>1494</v>
       </c>
       <c r="G226" t="s">
-        <v>1511</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -10008,10 +10536,10 @@
         <v>1312</v>
       </c>
       <c r="F227" t="s">
-        <v>1420</v>
+        <v>1495</v>
       </c>
       <c r="G227" t="s">
-        <v>1512</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -10031,10 +10559,10 @@
         <v>1283</v>
       </c>
       <c r="F228" t="s">
-        <v>1421</v>
+        <v>1496</v>
       </c>
       <c r="G228" t="s">
-        <v>1491</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -10057,7 +10585,7 @@
         <v>1092</v>
       </c>
       <c r="G229" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -10076,11 +10604,8 @@
       <c r="E230" t="s">
         <v>1274</v>
       </c>
-      <c r="F230" t="s">
-        <v>934</v>
-      </c>
       <c r="G230" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -10103,7 +10628,7 @@
         <v>1092</v>
       </c>
       <c r="G231" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -10123,7 +10648,7 @@
         <v>1283</v>
       </c>
       <c r="G232" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -10143,10 +10668,10 @@
         <v>1274</v>
       </c>
       <c r="F233" t="s">
-        <v>1350</v>
+        <v>1497</v>
       </c>
       <c r="G233" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -10166,10 +10691,10 @@
         <v>1292</v>
       </c>
       <c r="F234" t="s">
-        <v>1349</v>
+        <v>1498</v>
       </c>
       <c r="G234" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -10192,7 +10717,7 @@
         <v>951</v>
       </c>
       <c r="G235" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -10211,8 +10736,11 @@
       <c r="E236" t="s">
         <v>1274</v>
       </c>
+      <c r="F236" t="s">
+        <v>1499</v>
+      </c>
       <c r="G236" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -10232,10 +10760,10 @@
         <v>1313</v>
       </c>
       <c r="F237" t="s">
-        <v>1349</v>
+        <v>1500</v>
       </c>
       <c r="G237" t="s">
-        <v>1488</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -10255,7 +10783,7 @@
         <v>1283</v>
       </c>
       <c r="G238" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -10275,10 +10803,10 @@
         <v>1298</v>
       </c>
       <c r="F239" t="s">
-        <v>1422</v>
+        <v>1349</v>
       </c>
       <c r="G239" t="s">
-        <v>1495</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -10298,10 +10826,10 @@
         <v>1283</v>
       </c>
       <c r="F240" t="s">
-        <v>1398</v>
+        <v>1501</v>
       </c>
       <c r="G240" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -10320,11 +10848,8 @@
       <c r="E241" t="s">
         <v>1283</v>
       </c>
-      <c r="F241" t="s">
-        <v>934</v>
-      </c>
       <c r="G241" t="s">
-        <v>1493</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -10344,10 +10869,10 @@
         <v>1314</v>
       </c>
       <c r="F242" t="s">
-        <v>1423</v>
+        <v>1502</v>
       </c>
       <c r="G242" t="s">
-        <v>1493</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -10367,10 +10892,10 @@
         <v>1274</v>
       </c>
       <c r="F243" t="s">
-        <v>951</v>
+        <v>1503</v>
       </c>
       <c r="G243" t="s">
-        <v>1491</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -10390,10 +10915,10 @@
         <v>1283</v>
       </c>
       <c r="F244" t="s">
-        <v>971</v>
+        <v>1504</v>
       </c>
       <c r="G244" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -10413,10 +10938,10 @@
         <v>1315</v>
       </c>
       <c r="F245" t="s">
-        <v>1424</v>
+        <v>1505</v>
       </c>
       <c r="G245" t="s">
-        <v>1500</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -10435,8 +10960,11 @@
       <c r="E246" t="s">
         <v>1283</v>
       </c>
+      <c r="F246" t="s">
+        <v>1506</v>
+      </c>
       <c r="G246" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -10456,10 +10984,10 @@
         <v>1316</v>
       </c>
       <c r="F247" t="s">
-        <v>1396</v>
+        <v>1507</v>
       </c>
       <c r="G247" t="s">
-        <v>1493</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -10479,10 +11007,10 @@
         <v>1274</v>
       </c>
       <c r="F248" t="s">
-        <v>1346</v>
+        <v>1508</v>
       </c>
       <c r="G248" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -10502,10 +11030,10 @@
         <v>1274</v>
       </c>
       <c r="F249" t="s">
-        <v>1425</v>
+        <v>1361</v>
       </c>
       <c r="G249" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -10525,10 +11053,10 @@
         <v>1274</v>
       </c>
       <c r="F250" t="s">
-        <v>1426</v>
+        <v>1349</v>
       </c>
       <c r="G250" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -10547,11 +11075,8 @@
       <c r="E251" t="s">
         <v>1274</v>
       </c>
-      <c r="F251" t="s">
-        <v>934</v>
-      </c>
       <c r="G251" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -10571,10 +11096,10 @@
         <v>1308</v>
       </c>
       <c r="F252" t="s">
-        <v>1340</v>
+        <v>1509</v>
       </c>
       <c r="G252" t="s">
-        <v>1488</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -10593,8 +11118,11 @@
       <c r="E253" t="s">
         <v>1274</v>
       </c>
+      <c r="F253" t="s">
+        <v>1510</v>
+      </c>
       <c r="G253" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -10614,10 +11142,10 @@
         <v>1303</v>
       </c>
       <c r="F254" t="s">
-        <v>1427</v>
+        <v>1511</v>
       </c>
       <c r="G254" t="s">
-        <v>1494</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -10637,7 +11165,7 @@
         <v>1277</v>
       </c>
       <c r="G255" t="s">
-        <v>1488</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -10657,10 +11185,10 @@
         <v>1298</v>
       </c>
       <c r="F256" t="s">
-        <v>1381</v>
+        <v>951</v>
       </c>
       <c r="G256" t="s">
-        <v>1495</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -10680,10 +11208,10 @@
         <v>1274</v>
       </c>
       <c r="F257" t="s">
-        <v>1428</v>
+        <v>1163</v>
       </c>
       <c r="G257" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -10703,10 +11231,10 @@
         <v>1274</v>
       </c>
       <c r="F258" t="s">
-        <v>1429</v>
+        <v>951</v>
       </c>
       <c r="G258" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -10729,7 +11257,7 @@
         <v>951</v>
       </c>
       <c r="G259" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -10749,10 +11277,10 @@
         <v>1274</v>
       </c>
       <c r="F260" t="s">
-        <v>1430</v>
+        <v>971</v>
       </c>
       <c r="G260" t="s">
-        <v>1503</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -10772,10 +11300,10 @@
         <v>1277</v>
       </c>
       <c r="F261" t="s">
-        <v>1431</v>
+        <v>1500</v>
       </c>
       <c r="G261" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -10795,10 +11323,10 @@
         <v>1284</v>
       </c>
       <c r="F262" t="s">
-        <v>1432</v>
+        <v>1353</v>
       </c>
       <c r="G262" t="s">
-        <v>1493</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -10818,10 +11346,10 @@
         <v>1277</v>
       </c>
       <c r="F263" t="s">
-        <v>1347</v>
+        <v>1512</v>
       </c>
       <c r="G263" t="s">
-        <v>1488</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -10844,7 +11372,7 @@
         <v>1068</v>
       </c>
       <c r="G264" t="s">
-        <v>1495</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -10864,10 +11392,10 @@
         <v>1277</v>
       </c>
       <c r="F265" t="s">
-        <v>1349</v>
+        <v>1500</v>
       </c>
       <c r="G265" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -10886,8 +11414,11 @@
       <c r="E266" t="s">
         <v>1283</v>
       </c>
+      <c r="F266" t="s">
+        <v>1513</v>
+      </c>
       <c r="G266" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -10907,10 +11438,10 @@
         <v>1283</v>
       </c>
       <c r="F267" t="s">
-        <v>971</v>
+        <v>1514</v>
       </c>
       <c r="G267" t="s">
-        <v>1488</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -10930,10 +11461,10 @@
         <v>1298</v>
       </c>
       <c r="F268" t="s">
-        <v>1433</v>
+        <v>1515</v>
       </c>
       <c r="G268" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -10953,10 +11484,10 @@
         <v>1274</v>
       </c>
       <c r="F269" t="s">
-        <v>1434</v>
+        <v>1516</v>
       </c>
       <c r="G269" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -10976,10 +11507,10 @@
         <v>1309</v>
       </c>
       <c r="F270" t="s">
-        <v>1435</v>
+        <v>1517</v>
       </c>
       <c r="G270" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -10999,10 +11530,10 @@
         <v>1292</v>
       </c>
       <c r="F271" t="s">
-        <v>1436</v>
+        <v>1518</v>
       </c>
       <c r="G271" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -11022,10 +11553,10 @@
         <v>1277</v>
       </c>
       <c r="F272" t="s">
-        <v>1437</v>
+        <v>1519</v>
       </c>
       <c r="G272" t="s">
-        <v>1495</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -11045,10 +11576,10 @@
         <v>1284</v>
       </c>
       <c r="F273" t="s">
-        <v>1438</v>
+        <v>1520</v>
       </c>
       <c r="G273" t="s">
-        <v>1499</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -11067,8 +11598,11 @@
       <c r="E274" t="s">
         <v>1274</v>
       </c>
+      <c r="F274" t="s">
+        <v>1521</v>
+      </c>
       <c r="G274" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -11088,7 +11622,7 @@
         <v>1274</v>
       </c>
       <c r="G275" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -11108,10 +11642,10 @@
         <v>1302</v>
       </c>
       <c r="F276" t="s">
-        <v>1439</v>
+        <v>936</v>
       </c>
       <c r="G276" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -11131,10 +11665,10 @@
         <v>1284</v>
       </c>
       <c r="F277" t="s">
-        <v>1351</v>
+        <v>1361</v>
       </c>
       <c r="G277" t="s">
-        <v>1493</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -11154,10 +11688,10 @@
         <v>1277</v>
       </c>
       <c r="F278" t="s">
-        <v>1363</v>
+        <v>1522</v>
       </c>
       <c r="G278" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -11177,10 +11711,10 @@
         <v>1283</v>
       </c>
       <c r="F279" t="s">
-        <v>1440</v>
+        <v>1523</v>
       </c>
       <c r="G279" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -11200,10 +11734,10 @@
         <v>1317</v>
       </c>
       <c r="F280" t="s">
-        <v>1441</v>
+        <v>1524</v>
       </c>
       <c r="G280" t="s">
-        <v>1493</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -11223,10 +11757,10 @@
         <v>1274</v>
       </c>
       <c r="F281" t="s">
-        <v>1442</v>
+        <v>1386</v>
       </c>
       <c r="G281" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -11246,10 +11780,10 @@
         <v>1274</v>
       </c>
       <c r="F282" t="s">
-        <v>1347</v>
+        <v>1525</v>
       </c>
       <c r="G282" t="s">
-        <v>1503</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -11269,10 +11803,10 @@
         <v>1274</v>
       </c>
       <c r="F283" t="s">
-        <v>951</v>
+        <v>1526</v>
       </c>
       <c r="G283" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -11292,10 +11826,10 @@
         <v>1274</v>
       </c>
       <c r="F284" t="s">
-        <v>1348</v>
+        <v>1527</v>
       </c>
       <c r="G284" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -11314,8 +11848,11 @@
       <c r="E285" t="s">
         <v>1274</v>
       </c>
+      <c r="F285" t="s">
+        <v>1528</v>
+      </c>
       <c r="G285" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -11334,8 +11871,11 @@
       <c r="E286" t="s">
         <v>1274</v>
       </c>
+      <c r="F286" t="s">
+        <v>1529</v>
+      </c>
       <c r="G286" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -11355,10 +11895,10 @@
         <v>1274</v>
       </c>
       <c r="F287" t="s">
-        <v>1443</v>
+        <v>1530</v>
       </c>
       <c r="G287" t="s">
-        <v>1503</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -11377,8 +11917,11 @@
       <c r="E288" t="s">
         <v>1283</v>
       </c>
+      <c r="F288" t="s">
+        <v>1531</v>
+      </c>
       <c r="G288" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -11401,7 +11944,7 @@
         <v>951</v>
       </c>
       <c r="G289" t="s">
-        <v>1491</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -11421,10 +11964,10 @@
         <v>1318</v>
       </c>
       <c r="F290" t="s">
-        <v>1444</v>
+        <v>1532</v>
       </c>
       <c r="G290" t="s">
-        <v>1493</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -11444,10 +11987,10 @@
         <v>1274</v>
       </c>
       <c r="F291" t="s">
-        <v>1445</v>
+        <v>1533</v>
       </c>
       <c r="G291" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -11466,8 +12009,11 @@
       <c r="E292" t="s">
         <v>1274</v>
       </c>
+      <c r="F292" t="s">
+        <v>1534</v>
+      </c>
       <c r="G292" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -11487,10 +12033,10 @@
         <v>1277</v>
       </c>
       <c r="F293" t="s">
-        <v>1444</v>
+        <v>1532</v>
       </c>
       <c r="G293" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -11510,10 +12056,10 @@
         <v>1274</v>
       </c>
       <c r="F294" t="s">
-        <v>1402</v>
+        <v>1535</v>
       </c>
       <c r="G294" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -11533,10 +12079,10 @@
         <v>1283</v>
       </c>
       <c r="F295" t="s">
-        <v>1401</v>
+        <v>1536</v>
       </c>
       <c r="G295" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -11555,11 +12101,8 @@
       <c r="E296" t="s">
         <v>1319</v>
       </c>
-      <c r="F296" t="s">
-        <v>1428</v>
-      </c>
       <c r="G296" t="s">
-        <v>1499</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -11579,10 +12122,10 @@
         <v>1274</v>
       </c>
       <c r="F297" t="s">
-        <v>1446</v>
+        <v>1537</v>
       </c>
       <c r="G297" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -11602,10 +12145,10 @@
         <v>1274</v>
       </c>
       <c r="F298" t="s">
-        <v>1434</v>
+        <v>1378</v>
       </c>
       <c r="G298" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -11624,8 +12167,11 @@
       <c r="E299" t="s">
         <v>1296</v>
       </c>
+      <c r="F299" t="s">
+        <v>1538</v>
+      </c>
       <c r="G299" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -11645,10 +12191,10 @@
         <v>1283</v>
       </c>
       <c r="F300" t="s">
-        <v>1408</v>
+        <v>1092</v>
       </c>
       <c r="G300" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -11671,7 +12217,7 @@
         <v>951</v>
       </c>
       <c r="G301" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -11691,10 +12237,10 @@
         <v>1274</v>
       </c>
       <c r="F302" t="s">
-        <v>1390</v>
+        <v>1539</v>
       </c>
       <c r="G302" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -11713,8 +12259,11 @@
       <c r="E303" t="s">
         <v>1283</v>
       </c>
+      <c r="F303" t="s">
+        <v>1540</v>
+      </c>
       <c r="G303" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -11734,10 +12283,10 @@
         <v>1292</v>
       </c>
       <c r="F304" t="s">
-        <v>1092</v>
+        <v>1541</v>
       </c>
       <c r="G304" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -11757,10 +12306,10 @@
         <v>1274</v>
       </c>
       <c r="F305" t="s">
-        <v>951</v>
+        <v>1542</v>
       </c>
       <c r="G305" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -11779,11 +12328,8 @@
       <c r="E306" t="s">
         <v>1274</v>
       </c>
-      <c r="F306" t="s">
-        <v>1401</v>
-      </c>
       <c r="G306" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -11802,11 +12348,8 @@
       <c r="E307" t="s">
         <v>1283</v>
       </c>
-      <c r="F307" t="s">
-        <v>1447</v>
-      </c>
       <c r="G307" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -11826,10 +12369,10 @@
         <v>1277</v>
       </c>
       <c r="F308" t="s">
-        <v>1357</v>
+        <v>1543</v>
       </c>
       <c r="G308" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -11848,8 +12391,11 @@
       <c r="E309" t="s">
         <v>1274</v>
       </c>
+      <c r="F309" t="s">
+        <v>1544</v>
+      </c>
       <c r="G309" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -11868,8 +12414,11 @@
       <c r="E310" t="s">
         <v>1320</v>
       </c>
+      <c r="F310" t="s">
+        <v>1003</v>
+      </c>
       <c r="G310" t="s">
-        <v>1488</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -11889,10 +12438,10 @@
         <v>1277</v>
       </c>
       <c r="F311" t="s">
-        <v>1448</v>
+        <v>936</v>
       </c>
       <c r="G311" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -11911,11 +12460,8 @@
       <c r="E312" t="s">
         <v>1274</v>
       </c>
-      <c r="F312" t="s">
-        <v>934</v>
-      </c>
       <c r="G312" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -11938,7 +12484,7 @@
         <v>951</v>
       </c>
       <c r="G313" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -11958,10 +12504,10 @@
         <v>1277</v>
       </c>
       <c r="F314" t="s">
-        <v>1349</v>
+        <v>1371</v>
       </c>
       <c r="G314" t="s">
-        <v>1488</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -11984,7 +12530,7 @@
         <v>1092</v>
       </c>
       <c r="G315" t="s">
-        <v>1492</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -12004,10 +12550,10 @@
         <v>1283</v>
       </c>
       <c r="F316" t="s">
-        <v>1092</v>
+        <v>1545</v>
       </c>
       <c r="G316" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -12027,10 +12573,10 @@
         <v>1283</v>
       </c>
       <c r="F317" t="s">
-        <v>971</v>
+        <v>1546</v>
       </c>
       <c r="G317" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -12050,10 +12596,10 @@
         <v>1283</v>
       </c>
       <c r="F318" t="s">
-        <v>1449</v>
+        <v>1547</v>
       </c>
       <c r="G318" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -12073,10 +12619,10 @@
         <v>1274</v>
       </c>
       <c r="F319" t="s">
-        <v>951</v>
+        <v>1548</v>
       </c>
       <c r="G319" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -12099,7 +12645,7 @@
         <v>951</v>
       </c>
       <c r="G320" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -12119,10 +12665,10 @@
         <v>1292</v>
       </c>
       <c r="F321" t="s">
-        <v>1450</v>
+        <v>1549</v>
       </c>
       <c r="G321" t="s">
-        <v>1488</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -12141,8 +12687,11 @@
       <c r="E322" t="s">
         <v>1274</v>
       </c>
+      <c r="F322" t="s">
+        <v>1550</v>
+      </c>
       <c r="G322" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -12162,10 +12711,10 @@
         <v>1274</v>
       </c>
       <c r="F323" t="s">
-        <v>1390</v>
+        <v>1427</v>
       </c>
       <c r="G323" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -12185,10 +12734,10 @@
         <v>1277</v>
       </c>
       <c r="F324" t="s">
-        <v>1339</v>
+        <v>1353</v>
       </c>
       <c r="G324" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -12208,7 +12757,7 @@
         <v>1283</v>
       </c>
       <c r="G325" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -12228,10 +12777,10 @@
         <v>1283</v>
       </c>
       <c r="F326" t="s">
-        <v>1092</v>
+        <v>1551</v>
       </c>
       <c r="G326" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -12251,10 +12800,10 @@
         <v>1313</v>
       </c>
       <c r="F327" t="s">
-        <v>1451</v>
+        <v>1552</v>
       </c>
       <c r="G327" t="s">
-        <v>1488</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -12274,10 +12823,10 @@
         <v>1283</v>
       </c>
       <c r="F328" t="s">
-        <v>1351</v>
+        <v>1361</v>
       </c>
       <c r="G328" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -12296,11 +12845,8 @@
       <c r="E329" t="s">
         <v>1308</v>
       </c>
-      <c r="F329" t="s">
-        <v>934</v>
-      </c>
       <c r="G329" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -12320,10 +12866,10 @@
         <v>1277</v>
       </c>
       <c r="F330" t="s">
-        <v>1452</v>
+        <v>1553</v>
       </c>
       <c r="G330" t="s">
-        <v>1498</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -12346,7 +12892,7 @@
         <v>951</v>
       </c>
       <c r="G331" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -12369,7 +12915,7 @@
         <v>1092</v>
       </c>
       <c r="G332" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -12389,10 +12935,10 @@
         <v>1274</v>
       </c>
       <c r="F333" t="s">
-        <v>934</v>
+        <v>1554</v>
       </c>
       <c r="G333" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -12412,10 +12958,10 @@
         <v>1283</v>
       </c>
       <c r="F334" t="s">
-        <v>1068</v>
+        <v>1555</v>
       </c>
       <c r="G334" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -12435,10 +12981,10 @@
         <v>1321</v>
       </c>
       <c r="F335" t="s">
-        <v>1453</v>
+        <v>1556</v>
       </c>
       <c r="G335" t="s">
-        <v>1513</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -12458,10 +13004,10 @@
         <v>1283</v>
       </c>
       <c r="F336" t="s">
-        <v>1348</v>
+        <v>1557</v>
       </c>
       <c r="G336" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -12481,10 +13027,10 @@
         <v>1295</v>
       </c>
       <c r="F337" t="s">
-        <v>1438</v>
+        <v>1558</v>
       </c>
       <c r="G337" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -12504,10 +13050,10 @@
         <v>1283</v>
       </c>
       <c r="F338" t="s">
-        <v>1351</v>
+        <v>1559</v>
       </c>
       <c r="G338" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="339" spans="1:7">
@@ -12527,10 +13073,10 @@
         <v>1274</v>
       </c>
       <c r="F339" t="s">
-        <v>1454</v>
+        <v>971</v>
       </c>
       <c r="G339" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -12549,8 +13095,11 @@
       <c r="E340" t="s">
         <v>1283</v>
       </c>
+      <c r="F340" t="s">
+        <v>1560</v>
+      </c>
       <c r="G340" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="341" spans="1:7">
@@ -12570,10 +13119,10 @@
         <v>1320</v>
       </c>
       <c r="F341" t="s">
-        <v>1349</v>
+        <v>1561</v>
       </c>
       <c r="G341" t="s">
-        <v>1503</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -12593,10 +13142,10 @@
         <v>1309</v>
       </c>
       <c r="F342" t="s">
-        <v>1398</v>
+        <v>1562</v>
       </c>
       <c r="G342" t="s">
-        <v>1492</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -12616,10 +13165,10 @@
         <v>1309</v>
       </c>
       <c r="F343" t="s">
-        <v>1455</v>
+        <v>1563</v>
       </c>
       <c r="G343" t="s">
-        <v>1498</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -12639,10 +13188,10 @@
         <v>1295</v>
       </c>
       <c r="F344" t="s">
-        <v>1450</v>
+        <v>1549</v>
       </c>
       <c r="G344" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="345" spans="1:7">
@@ -12662,10 +13211,10 @@
         <v>1274</v>
       </c>
       <c r="F345" t="s">
-        <v>1456</v>
+        <v>1564</v>
       </c>
       <c r="G345" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -12685,7 +13234,7 @@
         <v>1274</v>
       </c>
       <c r="G346" t="s">
-        <v>1488</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -12705,10 +13254,10 @@
         <v>1315</v>
       </c>
       <c r="F347" t="s">
-        <v>1457</v>
+        <v>1565</v>
       </c>
       <c r="G347" t="s">
-        <v>1514</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="348" spans="1:7">
@@ -12728,10 +13277,10 @@
         <v>1274</v>
       </c>
       <c r="F348" t="s">
-        <v>1346</v>
+        <v>1351</v>
       </c>
       <c r="G348" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="349" spans="1:7">
@@ -12751,10 +13300,10 @@
         <v>1298</v>
       </c>
       <c r="F349" t="s">
-        <v>1458</v>
+        <v>1566</v>
       </c>
       <c r="G349" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="350" spans="1:7">
@@ -12774,10 +13323,10 @@
         <v>1322</v>
       </c>
       <c r="F350" t="s">
-        <v>1356</v>
+        <v>1567</v>
       </c>
       <c r="G350" t="s">
-        <v>1493</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="351" spans="1:7">
@@ -12797,10 +13346,10 @@
         <v>1277</v>
       </c>
       <c r="F351" t="s">
-        <v>1459</v>
+        <v>1469</v>
       </c>
       <c r="G351" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="352" spans="1:7">
@@ -12820,10 +13369,10 @@
         <v>1298</v>
       </c>
       <c r="F352" t="s">
-        <v>1460</v>
+        <v>1568</v>
       </c>
       <c r="G352" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="353" spans="1:7">
@@ -12843,10 +13392,10 @@
         <v>1274</v>
       </c>
       <c r="F353" t="s">
-        <v>951</v>
+        <v>1569</v>
       </c>
       <c r="G353" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="354" spans="1:7">
@@ -12866,7 +13415,7 @@
         <v>1274</v>
       </c>
       <c r="G354" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="355" spans="1:7">
@@ -12886,10 +13435,10 @@
         <v>1296</v>
       </c>
       <c r="F355" t="s">
-        <v>1092</v>
+        <v>1570</v>
       </c>
       <c r="G355" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="356" spans="1:7">
@@ -12909,10 +13458,10 @@
         <v>1274</v>
       </c>
       <c r="F356" t="s">
-        <v>1346</v>
+        <v>1351</v>
       </c>
       <c r="G356" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="357" spans="1:7">
@@ -12932,10 +13481,10 @@
         <v>1277</v>
       </c>
       <c r="F357" t="s">
-        <v>1363</v>
+        <v>1522</v>
       </c>
       <c r="G357" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="358" spans="1:7">
@@ -12955,7 +13504,7 @@
         <v>1320</v>
       </c>
       <c r="G358" t="s">
-        <v>1502</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -12975,10 +13524,10 @@
         <v>1283</v>
       </c>
       <c r="F359" t="s">
-        <v>971</v>
+        <v>1571</v>
       </c>
       <c r="G359" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="360" spans="1:7">
@@ -12997,8 +13546,11 @@
       <c r="E360" t="s">
         <v>1283</v>
       </c>
+      <c r="F360" t="s">
+        <v>1572</v>
+      </c>
       <c r="G360" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="361" spans="1:7">
@@ -13018,10 +13570,10 @@
         <v>1323</v>
       </c>
       <c r="F361" t="s">
-        <v>1461</v>
+        <v>1573</v>
       </c>
       <c r="G361" t="s">
-        <v>1515</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -13041,10 +13593,10 @@
         <v>1296</v>
       </c>
       <c r="F362" t="s">
-        <v>1343</v>
+        <v>1574</v>
       </c>
       <c r="G362" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="363" spans="1:7">
@@ -13063,8 +13615,11 @@
       <c r="E363" t="s">
         <v>1283</v>
       </c>
+      <c r="F363" t="s">
+        <v>1575</v>
+      </c>
       <c r="G363" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="364" spans="1:7">
@@ -13084,10 +13639,10 @@
         <v>1277</v>
       </c>
       <c r="F364" t="s">
-        <v>1372</v>
+        <v>1576</v>
       </c>
       <c r="G364" t="s">
-        <v>1493</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="365" spans="1:7">
@@ -13107,10 +13662,10 @@
         <v>1296</v>
       </c>
       <c r="F365" t="s">
-        <v>1385</v>
+        <v>1577</v>
       </c>
       <c r="G365" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="366" spans="1:7">
@@ -13130,10 +13685,10 @@
         <v>1284</v>
       </c>
       <c r="F366" t="s">
-        <v>1462</v>
+        <v>1578</v>
       </c>
       <c r="G366" t="s">
-        <v>1493</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="367" spans="1:7">
@@ -13153,10 +13708,10 @@
         <v>1277</v>
       </c>
       <c r="F367" t="s">
-        <v>1438</v>
+        <v>1579</v>
       </c>
       <c r="G367" t="s">
-        <v>1495</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="368" spans="1:7">
@@ -13176,10 +13731,10 @@
         <v>1277</v>
       </c>
       <c r="F368" t="s">
-        <v>1463</v>
+        <v>1580</v>
       </c>
       <c r="G368" t="s">
-        <v>1516</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="369" spans="1:7">
@@ -13199,10 +13754,10 @@
         <v>1292</v>
       </c>
       <c r="F369" t="s">
-        <v>1449</v>
+        <v>1581</v>
       </c>
       <c r="G369" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="370" spans="1:7">
@@ -13221,8 +13776,11 @@
       <c r="E370" t="s">
         <v>1283</v>
       </c>
+      <c r="F370" t="s">
+        <v>1582</v>
+      </c>
       <c r="G370" t="s">
-        <v>1491</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="371" spans="1:7">
@@ -13242,10 +13800,10 @@
         <v>1277</v>
       </c>
       <c r="F371" t="s">
-        <v>1464</v>
+        <v>1400</v>
       </c>
       <c r="G371" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="372" spans="1:7">
@@ -13265,10 +13823,10 @@
         <v>1296</v>
       </c>
       <c r="F372" t="s">
-        <v>1361</v>
+        <v>1583</v>
       </c>
       <c r="G372" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="373" spans="1:7">
@@ -13288,10 +13846,10 @@
         <v>1320</v>
       </c>
       <c r="F373" t="s">
-        <v>1465</v>
+        <v>1584</v>
       </c>
       <c r="G373" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="374" spans="1:7">
@@ -13310,8 +13868,11 @@
       <c r="E374" t="s">
         <v>1283</v>
       </c>
+      <c r="F374" t="s">
+        <v>1585</v>
+      </c>
       <c r="G374" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="375" spans="1:7">
@@ -13330,8 +13891,11 @@
       <c r="E375" t="s">
         <v>1277</v>
       </c>
+      <c r="F375" t="s">
+        <v>1586</v>
+      </c>
       <c r="G375" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="376" spans="1:7">
@@ -13351,7 +13915,7 @@
         <v>1283</v>
       </c>
       <c r="G376" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="377" spans="1:7">
@@ -13370,8 +13934,11 @@
       <c r="E377" t="s">
         <v>1283</v>
       </c>
+      <c r="F377" t="s">
+        <v>1587</v>
+      </c>
       <c r="G377" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="378" spans="1:7">
@@ -13391,7 +13958,7 @@
         <v>1283</v>
       </c>
       <c r="G378" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="379" spans="1:7">
@@ -13410,8 +13977,11 @@
       <c r="E379" t="s">
         <v>1283</v>
       </c>
+      <c r="F379" t="s">
+        <v>1588</v>
+      </c>
       <c r="G379" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="380" spans="1:7">
@@ -13431,10 +14001,10 @@
         <v>1277</v>
       </c>
       <c r="F380" t="s">
-        <v>1444</v>
+        <v>1589</v>
       </c>
       <c r="G380" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -13454,10 +14024,10 @@
         <v>1277</v>
       </c>
       <c r="F381" t="s">
-        <v>1437</v>
+        <v>1590</v>
       </c>
       <c r="G381" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="382" spans="1:7">
@@ -13477,7 +14047,7 @@
         <v>1283</v>
       </c>
       <c r="G382" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="383" spans="1:7">
@@ -13497,10 +14067,10 @@
         <v>1324</v>
       </c>
       <c r="F383" t="s">
-        <v>1466</v>
+        <v>1591</v>
       </c>
       <c r="G383" t="s">
-        <v>1500</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="384" spans="1:7">
@@ -13520,10 +14090,10 @@
         <v>1283</v>
       </c>
       <c r="F384" t="s">
-        <v>1467</v>
+        <v>1068</v>
       </c>
       <c r="G384" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="385" spans="1:7">
@@ -13543,10 +14113,10 @@
         <v>1320</v>
       </c>
       <c r="F385" t="s">
-        <v>1349</v>
+        <v>1500</v>
       </c>
       <c r="G385" t="s">
-        <v>1492</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="386" spans="1:7">
@@ -13566,10 +14136,10 @@
         <v>1325</v>
       </c>
       <c r="F386" t="s">
-        <v>1468</v>
+        <v>1592</v>
       </c>
       <c r="G386" t="s">
-        <v>1517</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="387" spans="1:7">
@@ -13589,10 +14159,10 @@
         <v>1326</v>
       </c>
       <c r="F387" t="s">
-        <v>1469</v>
+        <v>1593</v>
       </c>
       <c r="G387" t="s">
-        <v>1508</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="388" spans="1:7">
@@ -13612,10 +14182,10 @@
         <v>1327</v>
       </c>
       <c r="F388" t="s">
-        <v>1470</v>
+        <v>1502</v>
       </c>
       <c r="G388" t="s">
-        <v>1492</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="389" spans="1:7">
@@ -13635,10 +14205,10 @@
         <v>1277</v>
       </c>
       <c r="F389" t="s">
-        <v>1452</v>
+        <v>1553</v>
       </c>
       <c r="G389" t="s">
-        <v>1507</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="390" spans="1:7">
@@ -13658,10 +14228,10 @@
         <v>1323</v>
       </c>
       <c r="F390" t="s">
-        <v>1471</v>
+        <v>1594</v>
       </c>
       <c r="G390" t="s">
-        <v>1493</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="391" spans="1:7">
@@ -13680,8 +14250,11 @@
       <c r="E391" t="s">
         <v>1292</v>
       </c>
+      <c r="F391" t="s">
+        <v>999</v>
+      </c>
       <c r="G391" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="392" spans="1:7">
@@ -13701,10 +14274,10 @@
         <v>1281</v>
       </c>
       <c r="F392" t="s">
-        <v>1472</v>
+        <v>1595</v>
       </c>
       <c r="G392" t="s">
-        <v>1493</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="393" spans="1:7">
@@ -13724,10 +14297,10 @@
         <v>1283</v>
       </c>
       <c r="F393" t="s">
-        <v>1398</v>
+        <v>1453</v>
       </c>
       <c r="G393" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="394" spans="1:7">
@@ -13747,10 +14320,10 @@
         <v>1293</v>
       </c>
       <c r="F394" t="s">
-        <v>1349</v>
+        <v>1371</v>
       </c>
       <c r="G394" t="s">
-        <v>1488</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="395" spans="1:7">
@@ -13773,7 +14346,7 @@
         <v>971</v>
       </c>
       <c r="G395" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="396" spans="1:7">
@@ -13793,10 +14366,10 @@
         <v>1283</v>
       </c>
       <c r="F396" t="s">
-        <v>1347</v>
+        <v>1386</v>
       </c>
       <c r="G396" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="397" spans="1:7">
@@ -13816,10 +14389,10 @@
         <v>1277</v>
       </c>
       <c r="F397" t="s">
-        <v>1348</v>
+        <v>1596</v>
       </c>
       <c r="G397" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="398" spans="1:7">
@@ -13839,10 +14412,10 @@
         <v>1283</v>
       </c>
       <c r="F398" t="s">
-        <v>1092</v>
+        <v>1597</v>
       </c>
       <c r="G398" t="s">
-        <v>1502</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="399" spans="1:7">
@@ -13862,10 +14435,10 @@
         <v>1283</v>
       </c>
       <c r="F399" t="s">
-        <v>1449</v>
+        <v>1598</v>
       </c>
       <c r="G399" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="400" spans="1:7">
@@ -13885,10 +14458,10 @@
         <v>1283</v>
       </c>
       <c r="F400" t="s">
-        <v>1068</v>
+        <v>1599</v>
       </c>
       <c r="G400" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="401" spans="1:7">
@@ -13908,10 +14481,10 @@
         <v>1277</v>
       </c>
       <c r="F401" t="s">
-        <v>1444</v>
+        <v>1600</v>
       </c>
       <c r="G401" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="402" spans="1:7">
@@ -13931,10 +14504,10 @@
         <v>1292</v>
       </c>
       <c r="F402" t="s">
-        <v>1473</v>
+        <v>1092</v>
       </c>
       <c r="G402" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -13954,10 +14527,10 @@
         <v>1283</v>
       </c>
       <c r="F403" t="s">
-        <v>1474</v>
+        <v>971</v>
       </c>
       <c r="G403" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="404" spans="1:7">
@@ -13977,10 +14550,10 @@
         <v>1302</v>
       </c>
       <c r="F404" t="s">
-        <v>1470</v>
+        <v>1601</v>
       </c>
       <c r="G404" t="s">
-        <v>1518</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="405" spans="1:7">
@@ -13999,8 +14572,11 @@
       <c r="E405" t="s">
         <v>1292</v>
       </c>
+      <c r="F405" t="s">
+        <v>1602</v>
+      </c>
       <c r="G405" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="406" spans="1:7">
@@ -14019,8 +14595,11 @@
       <c r="E406" t="s">
         <v>1292</v>
       </c>
+      <c r="F406" t="s">
+        <v>1227</v>
+      </c>
       <c r="G406" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="407" spans="1:7">
@@ -14040,10 +14619,10 @@
         <v>1283</v>
       </c>
       <c r="F407" t="s">
-        <v>1401</v>
+        <v>1506</v>
       </c>
       <c r="G407" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="408" spans="1:7">
@@ -14062,8 +14641,11 @@
       <c r="E408" t="s">
         <v>1277</v>
       </c>
+      <c r="F408" t="s">
+        <v>1444</v>
+      </c>
       <c r="G408" t="s">
-        <v>1488</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="409" spans="1:7">
@@ -14083,10 +14665,10 @@
         <v>1323</v>
       </c>
       <c r="F409" t="s">
-        <v>1475</v>
+        <v>1603</v>
       </c>
       <c r="G409" t="s">
-        <v>1493</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="410" spans="1:7">
@@ -14106,10 +14688,10 @@
         <v>1283</v>
       </c>
       <c r="F410" t="s">
-        <v>1092</v>
+        <v>1604</v>
       </c>
       <c r="G410" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="411" spans="1:7">
@@ -14128,8 +14710,11 @@
       <c r="E411" t="s">
         <v>1292</v>
       </c>
+      <c r="F411" t="s">
+        <v>1605</v>
+      </c>
       <c r="G411" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="412" spans="1:7">
@@ -14149,10 +14734,10 @@
         <v>1283</v>
       </c>
       <c r="F412" t="s">
-        <v>1401</v>
+        <v>1606</v>
       </c>
       <c r="G412" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="413" spans="1:7">
@@ -14172,10 +14757,10 @@
         <v>1283</v>
       </c>
       <c r="F413" t="s">
-        <v>971</v>
+        <v>1607</v>
       </c>
       <c r="G413" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="414" spans="1:7">
@@ -14195,7 +14780,7 @@
         <v>1283</v>
       </c>
       <c r="G414" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="415" spans="1:7">
@@ -14215,10 +14800,10 @@
         <v>1322</v>
       </c>
       <c r="F415" t="s">
-        <v>1476</v>
+        <v>1608</v>
       </c>
       <c r="G415" t="s">
-        <v>1505</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="416" spans="1:7">
@@ -14238,10 +14823,10 @@
         <v>1283</v>
       </c>
       <c r="F416" t="s">
-        <v>1347</v>
+        <v>1386</v>
       </c>
       <c r="G416" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="417" spans="1:7">
@@ -14261,10 +14846,10 @@
         <v>1310</v>
       </c>
       <c r="F417" t="s">
-        <v>1452</v>
+        <v>1553</v>
       </c>
       <c r="G417" t="s">
-        <v>1504</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="418" spans="1:7">
@@ -14284,7 +14869,7 @@
         <v>1283</v>
       </c>
       <c r="G418" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="419" spans="1:7">
@@ -14304,10 +14889,10 @@
         <v>1328</v>
       </c>
       <c r="F419" t="s">
-        <v>1477</v>
+        <v>1609</v>
       </c>
       <c r="G419" t="s">
-        <v>1519</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="420" spans="1:7">
@@ -14327,10 +14912,10 @@
         <v>1283</v>
       </c>
       <c r="F420" t="s">
-        <v>1351</v>
+        <v>1610</v>
       </c>
       <c r="G420" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="421" spans="1:7">
@@ -14349,8 +14934,11 @@
       <c r="E421" t="s">
         <v>1283</v>
       </c>
+      <c r="F421" t="s">
+        <v>1611</v>
+      </c>
       <c r="G421" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="422" spans="1:7">
@@ -14370,10 +14958,10 @@
         <v>1329</v>
       </c>
       <c r="F422" t="s">
-        <v>1388</v>
+        <v>1421</v>
       </c>
       <c r="G422" t="s">
-        <v>1506</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -14393,10 +14981,10 @@
         <v>1293</v>
       </c>
       <c r="F423" t="s">
-        <v>1452</v>
+        <v>1553</v>
       </c>
       <c r="G423" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="424" spans="1:7">
@@ -14416,7 +15004,7 @@
         <v>1283</v>
       </c>
       <c r="G424" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="425" spans="1:7">
@@ -14436,10 +15024,10 @@
         <v>1292</v>
       </c>
       <c r="F425" t="s">
-        <v>1478</v>
+        <v>1612</v>
       </c>
       <c r="G425" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="426" spans="1:7">
@@ -14459,10 +15047,10 @@
         <v>1284</v>
       </c>
       <c r="F426" t="s">
-        <v>1452</v>
+        <v>1553</v>
       </c>
       <c r="G426" t="s">
-        <v>1493</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="427" spans="1:7">
@@ -14485,7 +15073,7 @@
         <v>1068</v>
       </c>
       <c r="G427" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="428" spans="1:7">
@@ -14505,7 +15093,7 @@
         <v>1283</v>
       </c>
       <c r="G428" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="429" spans="1:7">
@@ -14525,10 +15113,10 @@
         <v>1296</v>
       </c>
       <c r="F429" t="s">
-        <v>1467</v>
+        <v>1068</v>
       </c>
       <c r="G429" t="s">
-        <v>1488</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="430" spans="1:7">
@@ -14548,10 +15136,10 @@
         <v>1328</v>
       </c>
       <c r="F430" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="G430" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="431" spans="1:7">
@@ -14570,8 +15158,11 @@
       <c r="E431" t="s">
         <v>1283</v>
       </c>
+      <c r="F431" t="s">
+        <v>1445</v>
+      </c>
       <c r="G431" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="432" spans="1:7">
@@ -14591,10 +15182,10 @@
         <v>1277</v>
       </c>
       <c r="F432" t="s">
-        <v>1349</v>
+        <v>1613</v>
       </c>
       <c r="G432" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -14614,10 +15205,10 @@
         <v>1283</v>
       </c>
       <c r="F433" t="s">
-        <v>1402</v>
+        <v>1614</v>
       </c>
       <c r="G433" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -14637,10 +15228,10 @@
         <v>1292</v>
       </c>
       <c r="F434" t="s">
-        <v>1413</v>
+        <v>1615</v>
       </c>
       <c r="G434" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -14659,8 +15250,11 @@
       <c r="E435" t="s">
         <v>1295</v>
       </c>
+      <c r="F435" t="s">
+        <v>1616</v>
+      </c>
       <c r="G435" t="s">
-        <v>1520</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -14680,10 +15274,10 @@
         <v>1295</v>
       </c>
       <c r="F436" t="s">
-        <v>1092</v>
+        <v>1617</v>
       </c>
       <c r="G436" t="s">
-        <v>1495</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="437" spans="1:7">
@@ -14703,10 +15297,10 @@
         <v>1292</v>
       </c>
       <c r="F437" t="s">
-        <v>971</v>
+        <v>1618</v>
       </c>
       <c r="G437" t="s">
-        <v>1488</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="438" spans="1:7">
@@ -14726,10 +15320,10 @@
         <v>1292</v>
       </c>
       <c r="F438" t="s">
-        <v>1479</v>
+        <v>1619</v>
       </c>
       <c r="G438" t="s">
-        <v>1516</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -14748,8 +15342,11 @@
       <c r="E439" t="s">
         <v>1283</v>
       </c>
+      <c r="F439" t="s">
+        <v>1620</v>
+      </c>
       <c r="G439" t="s">
-        <v>1507</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="440" spans="1:7">
@@ -14772,7 +15369,7 @@
         <v>951</v>
       </c>
       <c r="G440" t="s">
-        <v>1488</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="441" spans="1:7">
@@ -14792,10 +15389,10 @@
         <v>1292</v>
       </c>
       <c r="F441" t="s">
-        <v>1402</v>
+        <v>1621</v>
       </c>
       <c r="G441" t="s">
-        <v>1488</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="442" spans="1:7">
@@ -14815,10 +15412,10 @@
         <v>1283</v>
       </c>
       <c r="F442" t="s">
-        <v>1092</v>
+        <v>1570</v>
       </c>
       <c r="G442" t="s">
-        <v>1489</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="443" spans="1:7">
@@ -14837,8 +15434,11 @@
       <c r="E443" t="s">
         <v>1277</v>
       </c>
+      <c r="F443" t="s">
+        <v>1586</v>
+      </c>
       <c r="G443" t="s">
-        <v>1488</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="444" spans="1:7">
@@ -14858,10 +15458,10 @@
         <v>1277</v>
       </c>
       <c r="F444" t="s">
-        <v>1366</v>
+        <v>1622</v>
       </c>
       <c r="G444" t="s">
-        <v>1488</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="445" spans="1:7">
@@ -14881,10 +15481,10 @@
         <v>1277</v>
       </c>
       <c r="F445" t="s">
-        <v>1480</v>
+        <v>1623</v>
       </c>
       <c r="G445" t="s">
-        <v>1492</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="446" spans="1:7">
@@ -14904,10 +15504,10 @@
         <v>1277</v>
       </c>
       <c r="F446" t="s">
-        <v>1366</v>
+        <v>1622</v>
       </c>
       <c r="G446" t="s">
-        <v>1488</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="447" spans="1:7">
@@ -14927,10 +15527,10 @@
         <v>1292</v>
       </c>
       <c r="F447" t="s">
-        <v>1481</v>
+        <v>1624</v>
       </c>
       <c r="G447" t="s">
-        <v>1488</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="448" spans="1:7">
@@ -14950,10 +15550,10 @@
         <v>1277</v>
       </c>
       <c r="F448" t="s">
-        <v>1378</v>
+        <v>1625</v>
       </c>
       <c r="G448" t="s">
-        <v>1495</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="449" spans="1:7">
@@ -14973,10 +15573,10 @@
         <v>1330</v>
       </c>
       <c r="F449" t="s">
-        <v>1482</v>
+        <v>1626</v>
       </c>
       <c r="G449" t="s">
-        <v>1521</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="450" spans="1:7">
@@ -14996,10 +15596,10 @@
         <v>1277</v>
       </c>
       <c r="F450" t="s">
-        <v>1372</v>
+        <v>1627</v>
       </c>
       <c r="G450" t="s">
-        <v>1495</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="451" spans="1:7">
@@ -15019,7 +15619,7 @@
         <v>1320</v>
       </c>
       <c r="G451" t="s">
-        <v>1503</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="452" spans="1:7">
@@ -15039,10 +15639,10 @@
         <v>1283</v>
       </c>
       <c r="F452" t="s">
-        <v>1092</v>
+        <v>1628</v>
       </c>
       <c r="G452" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="453" spans="1:7">
@@ -15061,8 +15661,11 @@
       <c r="E453" t="s">
         <v>1292</v>
       </c>
+      <c r="F453" t="s">
+        <v>1629</v>
+      </c>
       <c r="G453" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="454" spans="1:7">
@@ -15081,8 +15684,11 @@
       <c r="E454" t="s">
         <v>1320</v>
       </c>
+      <c r="F454" t="s">
+        <v>1630</v>
+      </c>
       <c r="G454" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="455" spans="1:7">
@@ -15102,10 +15708,10 @@
         <v>1292</v>
       </c>
       <c r="F455" t="s">
-        <v>1483</v>
+        <v>1631</v>
       </c>
       <c r="G455" t="s">
-        <v>1490</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="456" spans="1:7">
@@ -15125,10 +15731,10 @@
         <v>1331</v>
       </c>
       <c r="F456" t="s">
-        <v>1484</v>
+        <v>1632</v>
       </c>
       <c r="G456" t="s">
-        <v>1508</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="457" spans="1:7">
@@ -15148,10 +15754,10 @@
         <v>1332</v>
       </c>
       <c r="F457" t="s">
-        <v>1485</v>
+        <v>1633</v>
       </c>
       <c r="G457" t="s">
-        <v>1513</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="458" spans="1:7">
@@ -15171,10 +15777,10 @@
         <v>1277</v>
       </c>
       <c r="F458" t="s">
-        <v>1486</v>
+        <v>1634</v>
       </c>
       <c r="G458" t="s">
-        <v>1511</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="459" spans="1:7">
@@ -15194,10 +15800,10 @@
         <v>1277</v>
       </c>
       <c r="F459" t="s">
-        <v>1481</v>
+        <v>1635</v>
       </c>
       <c r="G459" t="s">
-        <v>1488</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="460" spans="1:7">
@@ -15216,8 +15822,11 @@
       <c r="E460" t="s">
         <v>1333</v>
       </c>
+      <c r="F460" t="s">
+        <v>1406</v>
+      </c>
       <c r="G460" t="s">
-        <v>1522</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="461" spans="1:7">
@@ -15237,10 +15846,10 @@
         <v>1292</v>
       </c>
       <c r="F461" t="s">
-        <v>1366</v>
+        <v>1636</v>
       </c>
       <c r="G461" t="s">
-        <v>1487</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="462" spans="1:7">
@@ -15263,7 +15872,7 @@
         <v>951</v>
       </c>
       <c r="G462" t="s">
-        <v>1488</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="463" spans="1:7">
@@ -15283,10 +15892,10 @@
         <v>1320</v>
       </c>
       <c r="F463" t="s">
-        <v>1450</v>
+        <v>1549</v>
       </c>
       <c r="G463" t="s">
-        <v>1503</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="464" spans="1:7">
@@ -15309,7 +15918,7 @@
         <v>971</v>
       </c>
       <c r="G464" t="s">
-        <v>1488</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="465" spans="1:7">
@@ -15329,10 +15938,10 @@
         <v>1334</v>
       </c>
       <c r="F465" t="s">
-        <v>1349</v>
+        <v>1371</v>
       </c>
       <c r="G465" t="s">
-        <v>1492</v>
+        <v>1642</v>
       </c>
     </row>
   </sheetData>
